--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,216 +471,224 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>조회수</t>
+          <t>상세정보</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[사하구]사하MZ 문화청신호를 켜라! 「크리스마스 원데이 클래스」 수강생 모집</t>
+          <t>금정구 청년창조발전소(꿈터플러스) 입주 스타트업 모집</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-11-22 ~ 2023-12-04</t>
+          <t>2023-11-24 ~ 2023-12-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-12-06 ~ 2023-12-22</t>
+          <t>~</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>기타 / 사하구 거주 또는 활동 청년 10명</t>
+          <t>기타</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>사하청년공간 청신호</t>
+          <t>청년창조발전소 꿈터플러스</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>051-271-0191</t>
+          <t>051-710-4920~3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.saha.go.kr/startup/</t>
+          <t>http://www.xn--cw0bn74d.kr/board/bbs/board.php?bo_table=notice≀_id=153</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>청년들의 참신한 아이디어를 현실화하도록 지원하는 청년창업공간 『청년창조발전소 꿈터⁺』 에서 입주 스타트업을 모집하니 많은 신청 부탁드립니다.❍ 입주 스타트업 공개모집1. 모집 스타트업 :3개 내외 ※ 2인실 1팀, 오픈랩 1~2개 팀2. 입 주 기 간 : 12개월(재평가를 통해 추가 12개월 연장가능, 최대 24개월 입주 가능)3. 입 주 대 상 : 6개월 이내 창업예정인 예비창업자, 입주 신청일 현재 창업일로부터 3년이 경과되지 아니한 부산광역시에 소재를 둔 기업4. 입 주 비 용 : 공고문 참조5. 모 집 기 간 :2023.11.24.(금) ~2023.12.26.(화) 14:00까지6. 모 집 분 야 : 문화/예술/콘텐츠/유통/IT/서비스 등 관련 스타트업7. 선 정 절 차 :신청서 작성 및 접수(11/24~12/26) → 서면심사(12/27) → 심사결과 통보(개별통보) → 입주계약체결(12/28~12/29) → 입주(1/1~)입주자 혜택 및 지원 관련 자세한 내용은 공고문을 참조해주시기 바랍니다.문의 : 청년창조발전소 꿈터⁺(☎ 051.710.4920~3)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[사하구] 사하청년 소셜다이닝 『쿠킹 메이트』 참여자 모집</t>
+          <t>[해운대구] Chat GPT 활용 분석 프로그램</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-21 ~ 2023-11-29</t>
+          <t>2023-11-23 ~ 2023-12-11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-12-01 ~ 2023-12-15</t>
+          <t>2023-12-12 ~ 2023-12-14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>기타 / 사하구 거주 또는 활동 1인가구 청년 8명</t>
+          <t>제한없음 / 부산 및 해운대구 만 39세 이하 청년</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>사하청년공간 청신호</t>
+          <t>해운대 청년채움공간</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>051-271-0191</t>
+          <t>051-647-0915</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.saha.go.kr/startup/</t>
+          <t>www.해운대청년채움공간.kr</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>안녕하세요 :)해운대 청년채움공간 운영사무국 입니다.저희 운영기관에서 『Chat GPT 활용&amp;분석 프로그램』 교육을 실시합니다.- 일자: 2023년 12월 12일(화)~14일(목), 3일 과정- 시간: 오후2시~오후6시까지(4시간)- 장소: 해운대 청년채움공간 A동 채움관- 수강료: 전액 무료!!!!- 필수준비물 : 개인노트북(pc) 필히 지참!!- 참여신청 방법 :https://naver.me/5uidpta0, QR코드 촬영※ 문의처 : 해운대 청년채움공간 운영사무국 051 - 647 - 0915많은 참여부탁드립니다^^</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>청년 신용재무상담(1:1 맞춤 재무상담)</t>
+          <t>[사하구]사하MZ 문화청신호를 켜라! 「크리스마스 원데이 클래스」 수강생 모집</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-21 ~ 2023-12-12</t>
+          <t>2023-11-22 ~ 2023-12-04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-12-13 ~ 2023-12-13</t>
+          <t>2023-12-06 ~ 2023-12-22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>제한없음 / 만 18~39세 청년 누구나</t>
+          <t>기타 / 사하구 거주 또는 활동 청년 10명</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>남구 일자리경제과 청년정책팀</t>
+          <t>사하청년공간 청신호</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>051-607-3666</t>
+          <t>051-271-0191</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://m.site.naver.com/1g6pi</t>
+          <t>https://www.saha.go.kr/startup/</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>청년들의 문화놀이터사하청년공간 청신호에서사하MZ문화 청신호를 켜라!「크리스마스 원데이 클래스」를다음과 같이 운영하오니 관심 있는 청년들의 많은 참여 바랍니다.-운영개요 -가.기 간: 2023. 12. 6. ~ 12. 22. (수,금19:00 ~ 21:00)▷총4회나.접수기간: 2023. 11. 22.(수) ~모집완료시▷선착순 마감다.대 상: 19세~34세 사하구 거주·활동 청년▷회당10명라.장 소:사하청년공간 청신호(사하구 낙동대로413,하단롯데캐슬2층)마.내 용연번프로그램명운영일자운영시간강사모집인원재료비비고1나만의 시그니처 향수12.6.(수)19:00~21:00(2시간)김다혜10명20,000원2크리스마스 벽트리12.13.(수)이혜진10명10,000원3반짝반짝 은반지12.20.(수)김화임10명15,000원4크리스마스 케이크12.22.(금)조아라10명20,000원바.수 강 료:무료재료비▷수강생 부담사.접수방법:사하청년공간 청신호 홈페이지 접수(http://www.saha.go.kr/startup)아.문의:사하청년공간 청신호(☎271-0191)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>부산청년마음건강센터 청춘소설 북토크 및 치유글쓰기 프로그램</t>
+          <t>[사하구] 사하청년 소셜다이닝 『쿠킹 메이트』 참여자 모집</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>2023-11-21 ~ 2023-11-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>2023-12-01 ~ 2023-12-15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>제한없음</t>
+          <t>기타 / 사하구 거주 또는 활동 1인가구 청년 8명</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>부산청년마음건강센터</t>
+          <t>사하청년공간 청신호</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>051-710-2661</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>051-271-0191</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.saha.go.kr/startup/</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>청년들의 문화놀이터사하청년공간 청신호에서사하청년 소셜다이닝「쿠킹메이트」를다음과 같이 운영하오니 관심 있는 청년들의 많은 참여 바랍니다.-운영개요 -가.기 간: 2023. 12. 1. ~ 12. 15. (금, 15:00 ~ 17:00)▷총3회나.접수기간: 2023. 11. 21.(화) ~모집완료시▷선착순 마감다.대 상: 19세~34세 사하구 거주·활동1인가구 청년8명라.장 소:사하청년공간 청신호(사하구 낙동대로413,하단롯데캐슬2층)마.내 용:쿠킹 클래스(다이닝 디저트)및 소셜다이닝연번프로그램명운영일자운영시간강사모집인원비고1가냐슈타르트&amp;뉴욕핫도그12.1.(금)15:00~17:00(2시간)조아라회당8명2크랜베리 치킨 샌드위치&amp;에그버거12.8.(금)3개구리버거&amp;크리스마스 캐릭터팝12.15.(금)바.수강료(재료비) :무료사.접수방법:사하청년공간 청신호 홈페이지 접수(http://www.saha.go.kr/startup)아.문 의:사하청년공간 청신호(☎271-0191)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023 금정 청년 로컬페스타 개최(11/23)</t>
+          <t>청년 신용재무상담(1:1 맞춤 재무상담)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>2023-11-21 ~ 2023-12-12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>2023-12-13 ~ 2023-12-13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>제한없음</t>
+          <t>제한없음 / 만 18~39세 청년 누구나</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>금정구 일자리경제과</t>
+          <t>남구 일자리경제과 청년정책팀</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>051-714-2855 (스타트허브 주식회사)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>051-607-3666</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://m.site.naver.com/1g6pi</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>1. 모집대상 : 만 18~34세 청년 누구나2. 모집인원 : 선착순 6명3. 운영내용 : 개인 맞춤 재무상담(1인 40분 소요)- 수입 지출관리(가계부 작성 및 점검)- 합리적인 저축방법- 신용 및 부채관리- 개별 가입 금융상품 분석 및 투자원칙 안내 등4. 운영일시 : 12/13(수) 14:00~16:005. 운영장소 : 남구청년창조발전소(남구 용소로46번길 7)6. 신청방법 : 홈페이지 청년프로그램 게시판 온라인 신청(https://m.site.naver.com/1g6pi)7. 문의처 : 남구 일자리경제과 청년정책팀(051-607-3666~7)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023 금정 청년 로컬페스타 개최(11/23)</t>
+          <t>부산청년마음건강센터 청춘소설 북토크 및 치유글쓰기 프로그램</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,72 +708,68 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>금정구 일자리경제과</t>
+          <t>부산청년마음건강센터</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>051-714-2855 (스타트허브 주식회사)</t>
+          <t>051-710-2661</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>부산진구보건소 산하 부산진구정신건강복지센터 부설 부산청년마음건강센터 ‘청춘소설’입니다.‘청춘소설’은 청년의 정신건강문제를 조기에 발견하고 빠른 회복을 돕고자 하는 기관입니다.마음의 위험신호가 느껴지는 청년이라면 누구나 무료로 필요한 도움을 받을 수 있으며, 정신건강전문가가 다양한 심리사회적 서비스를 제공합니다.본 ‘청춘소설’에서는 부산시에 거주하는 청년(만19-34세) 10명을 대상으로 북토크 및 치유글쓰기 프로그램을 실시하고자 하오니 많은 관심 부탁드립니다.□ 프로그램개요1. 행 사 명: 북토크 및 치유글쓰기 프로그램  *해당도서증정!2. 일 시: 2023. 11. 21.(화) 19:00-21:003. 장 소: 청년창조발전소 디자인스프링 (부산광역시 부산진구 대학로 36번길 10, 2층)4. 대 상: 마음건강에 관심이 있는 부산시 청년(만19-34세) 10명 (선착순 모집)5. 진 행: 연정 작가(저서 &lt;내일은 내일의 해가 뜨겠지만 오늘 밤은 어떡하나요, 섹시한 슬라임이 되고 싶어 등)6. 문 의: 청춘소설 Tel. 051-710-2661 (담당자: 이주은)□ 사전접수 안내1. 본 행사는 무료로 진행되며, 사전접수자만 참여 가능합니다.2. 기재해주신 연락처를 통해 참여 확정 안내 문자가 발송될 예정이오니, 성함과 연락처를 정확하게 기재해주시길 부탁드립니다.□ 기타 안내사항1. 본 행사는 사전예약제로 운영하며, 선착순으로 모집합니다.2. 별도의 주차장을 마련하고 있지 않으므로, 대중교통 이용을 부탁드립니다.3. 사전 접수 링크입니다.https://docs.google.com/forms/d/e/1FAIpQLSfhgavPnYKgkQAPyBOoU-UN7dNjwJRBGH0lwyrfBtpnzbZjbw/viewform?usp=sf_link</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[해운대구] Chat GPT 활용 분석 프로그램</t>
+          <t>2023 금정 청년 로컬페스타 개최(11/23)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-11-20 ~ 2023-12-12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023-12-12 ~ 2023-12-14</t>
+          <t>~</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>제한없음 / 부산 및 해운대구 만 39세 이하 청년</t>
+          <t>제한없음</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>해운대 청년채움공간</t>
+          <t>금정구 일자리경제과</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>051-647-0915</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>www.해운대청년채움공간.kr</t>
-        </is>
-      </c>
+          <t>051-714-2855 (스타트허브 주식회사)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>신청하기 :https://bit.ly/3SKPChN2023년금정 청년 로컬크리에이터 지원사업의 성과공유,로컬크리에이터 선발기업13개사의 전시 및 IR 발표,'금정-청년'을 주제로 한 토크콘서트등이 진행되오니금정구에 관심 있는 많은 분들의 참여 바랍니다.1. 행사개요◦ 행 사 명 : 「2023년 금정 청년 로컬크리에이터 운영사업'금정 로컬 페스타'」◦ 주 관 : 부산광역시 금정구, 스타트허브(주)◦ 일 시 : 2023. 11. 23(목), 13:00~18:00- 개 회 식 : 13:30~13:40- 장 소 : 청년창조발전소 꿈터플러스(부산광역시 금정구 금정로 63-1, 1층/5층)- 개회식, 기업전시, 토크콘서트◦ 대 상 : 로컬크리에이터 선정기업 13개 외 금정구 내 소상공인, 창업에 관심 있는 일반인 등◦ 주요행사·창업존 : 13개 기업 전시부스운영(13:00~18:00)·개회식 : 지원사업 성과공유 및 13개 기업 소개·토크존 : 창업토크콘서트(작은 음악회), IR피치덱 운영·홍보존 : 기업홍보영상 상영 및 청년정책 홍보2. 신청방법◦ 모집기간 :2023. 11. 17.(금) ~ 11.22(수) 17:00◦ 모집인원 :제한 없음.◦ 신청방법- 참가신청 : https://bit.ly/3SKPChN3. 문의처◦ 스타트허브(주) 금정 청년 로컬크리에이터 운영팀- 전화 : 051-714-2855, 이메일 :glocal@starthub.kr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[영도청년희망챌린지] 떡만들기 체험 프로그램</t>
+          <t>2023 금정 청년 로컬페스타 개최(11/23)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-11-17 ~ 2023-11-24</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -780,72 +784,72 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>영도구종합사회복지관</t>
+          <t>금정구 일자리경제과</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>051-413-4661</t>
+          <t>051-714-2855 (스타트허브 주식회사)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>신청하기 :https://bit.ly/3SKPChN2023년금정 청년 로컬크리에이터 지원사업의 성과공유,로컬크리에이터 선발기업13개사의 전시 및 IR 발표,'금정-청년'을 주제로 한 토크콘서트등이 진행되오니금정구에 관심 있는 많은 분들의 참여 바랍니다.1. 행사개요◦ 행 사 명 : 「2023년 금정 청년 로컬크리에이터 운영사업'금정 로컬 페스타'」◦ 주 관 : 부산광역시 금정구, 스타트허브(주)◦ 일 시 : 2023. 11. 23(목), 13:00~18:00- 개 회 식 : 13:30~13:40- 장 소 : 청년창조발전소 꿈터플러스(부산광역시 금정구 금정로 63-1, 1층/5층)- 개회식, 기업전시, 토크콘서트◦ 대 상 : 로컬크리에이터 선정기업 13개 외 금정구 내 소상공인, 창업에 관심 있는 일반인 등◦ 주요행사·창업존 : 13개 기업 전시부스운영(13:00~18:00)·개회식 : 지원사업 성과공유 및 13개 기업 소개·토크존 : 창업토크콘서트(작은 음악회), IR피치덱 운영·홍보존 : 기업홍보영상 상영 및 청년정책 홍보2. 신청방법◦ 모집기간 :2023. 11. 17.(금) ~ 11.22(수) 17:00◦ 모집인원 :제한 없음.◦ 신청방법- 참가신청 : https://bit.ly/3SKPChN3. 문의처◦ 스타트허브(주) 금정 청년 로컬크리에이터 운영팀- 전화 : 051-714-2855, 이메일 :glocal@starthub.kr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>우리동네청년포럼(2023년 영도구인구활력화공모지원사업)</t>
+          <t>[해운대구] Chat GPT 활용 분석 프로그램</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>2023-11-20 ~ 2023-12-12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>2023-12-12 ~ 2023-12-14</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>제한없음</t>
+          <t>제한없음 / 부산 및 해운대구 만 39세 이하 청년</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>심오한하우스(영도구 신성장전략과)</t>
+          <t>해운대 청년채움공간</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>051-419-4614</t>
+          <t>051-647-0915</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>- bit.ly/yyforum</t>
+          <t>www.해운대청년채움공간.kr</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>안녕하세요:)해운대 청년채움공간 운영사무국 입니다.저희 운영기관에서『Chat GPT활용&amp;분석 프로그램』교육을 실시합니다.-일자: 2023년12월12일(화)~14일(목), 3일 과정-시간:오후2시~오후6시까지(4시간)-장소:해운대 청년채움공간A동 채움관-수강료:전액 무료!!!!-필수준비물:개인노트북(pc)필히 지참!!-참여신청 방법:https://naver.me/5uidpta0, QR코드 촬영※문의처:해운대 청년채움공간 운영사무국051 - 647 - 0915많은 참여부탁드립니다^^</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(수영구)은둔/고립 고위험군 청년 사회복귀 프로그램 '도약'</t>
+          <t>우리동네청년포럼(2023년 영도구인구활력화공모지원사업)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-11-09 ~ 2023-11-30</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -855,30 +859,34 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>기타 / 수영구 내 거주중인 은둔 / 고립 고위험군 청년 5명</t>
+          <t>제한없음</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>부산종합사회복지관</t>
+          <t>심오한하우스(영도구 신성장전략과)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>051-758-4445</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>051-419-4614</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>- bit.ly/yyforum</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>&lt;우리동네청년포럼&gt; 참여자 모집 안내입니다. 관심 있는 분들의 많은 참여 바랍니다.우리동네청년포럼#청년#지역#넥스트그라운드탐색당신은 어떤 곳에서 살고 있나요?자는 집이 있다는 것 말고는 달리 설명할 방법이 없거나,청년과 지역에 관련된 이야기가 낯설게만 들리진 않았나요?만약 그랬다면 청년과 지역의 관계를 다르게 바라보면 어떨까요.동네를 공유하는 사람들과 관계를 맺는 곳,함께 여유를 즐기거나 재밌는 것을 작당하는 곳,나의 일상과 삶이 연결되는 곳,그런 곳이 있다면 우리의 삶도 달라지지 않을까요?우리동네청년포럼에서는청년과 지역의 관계를 다시 살펴보고,당연히 여겼거나 잘 다루지 않던 것을 나눠보려 합니다.이곳에서 당신과 만나 함께 상상하길 기대합니다.당신은 어떤 곳에서 살고 싶나요?□우리동네청년포럼 행사개요: 2023년11월25일(토) 12:30-21:30:아포지테라스(부산 영도구 청학남로47번길20):청년과 지역의 관계를 함께 이야기하고 싶은 청년 등 누구나:함께 대화하며 시간을 즐길 마음+텀블러내용 및 신청: bit.ly/yyforum□모두 참여해도 좋고,일부 선택해서 참여해도 좋아요!- [12:30-14:00]토크쇼/누울 자리는 내가 고른다- [14:30-16:30]워크숍/그 땅은 이제 우리 겁니다- [17:00-18:30]간담회/눈 떠보니 영도- [19:00-21:30]교류회/영도로연결될지도2023영도구 신성장전략과 인구활력화 사업청년우호지대NEXT GROUND단서찾기영도구/심오한연구소</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[청년 진구愛살다] 11월 와플클래스</t>
+          <t>(수영구)은둔/고립 고위험군 청년 사회복귀 프로그램 '도약'</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -888,86 +896,82 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023-11-27 ~ 2023-11-30</t>
+          <t>~</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>제한없음</t>
+          <t>기타 / 수영구 내 거주중인 은둔 / 고립 고위험군 청년 5명</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>부산진구종합사회복지관</t>
+          <t>부산종합사회복지관</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>051-893-0035</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/waffle_jingu/</t>
-        </is>
-      </c>
+          <t>051-758-4445</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>부산종합사회복지관에서 진행하는 도약 프로그램 안내입니다.도약 프로그램은 은둔 고위험군 청년을 위한 프로그램으로개인 역량강화를 위한 교육 및 사회복귀 준비활동을 실시할 예정입니다.모집 인원은 총5명이며 수영구 내 거주중인만25세~만35세 청년을 대상으로 사업을 진행할 예정입니다.자세한 내용은 첨부한 카드뉴스 확인을 부탁드리고신청 및 문의는 복지2팀(051-758-4445)로 연락주시면 감사하겠습니다!</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>성공하는 7가지 습관(효과적인 시간관리법)</t>
+          <t>[청년 진구愛살다] 11월 와플클래스</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-11-01 ~ 2023-11-28</t>
+          <t>2023-11-09 ~ 2023-11-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023-11-29 ~ 2023-11-29</t>
+          <t>2023-11-27 ~ 2023-11-30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>제한없음 / 만 18~39세 청년 누구나</t>
+          <t>제한없음</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>남구 일자리경제과 청년정책팀</t>
+          <t>부산진구종합사회복지관</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>051-607-3666</t>
+          <t>051-893-0035</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://m.site.naver.com/1eQwU</t>
+          <t>https://www.instagram.com/waffle_jingu/</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>[청년 진구愛살다] 11월 와플클래스가 돌아왔습니다👏👏톤앤미 퍼스널컬러 트레이닝 강사 이주영 청년멘토님의 라이프스토리를 듣는 세바시 멘토특강부터 🌈박상은 청년의 재능나눔활동으로 '챌린지! 연극도전기'시 강의까지! 🎭이번 11월도 알차게 준비되어 있는데요^^바람도 많이 불고 쌀쌀해진 겨울을 맞아 와플에서 추위를 같이 극복해보시는 건 어떨까요?청년분들의 많은 관심과 참여 부탁드려요!😁🤍 모집 기간: 와플클래스 모집 인원 선착순 마감까지 (문의 해주세요!)🤍 모집 대상: 와플클래스에 관심 있는 부산 청년 (멘토특강 15명/재능나눔 10명)🤍 신청 방법: '와글와글플랫폼' 카카오톡채널 추가 or 인스타그램 팔로우 후 채팅을 통한 신청※ 신청은 채팅창을 통해 문의 해주세요:-) 순차적으로 답변을 드리고 있어 응답시간이 다소 지연될 수 있는 점 양해 부탁드립니다.*본 사업은 2023 부산시 청년 프로그램 지원사업으로 진행됩니다.#부산진구종합사회복지관#부산시청년프로그램지원사업#부산광역시#부산진구#청년공간#와글와글플랫폼#재능나눔강좌#멘토특강</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[사하구] 하반기「청년 경제아카데미」 수강생 모집</t>
+          <t>성공하는 7가지 습관(효과적인 시간관리법)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-07 ~ 2023-11-27</t>
+          <t>2023-11-01 ~ 2023-11-28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -977,91 +981,91 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>기타 / 사하구 거주 또는 활동 청년 20명</t>
+          <t>제한없음 / 만 18~39세 청년 누구나</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>사하구/사하구청년창업지원센터</t>
+          <t>남구 일자리경제과 청년정책팀</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>051-201-0191</t>
+          <t>051-607-3666</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.saha.go.kr/startup/</t>
+          <t>https://m.site.naver.com/1eQwU</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>1. 모집대상 : 만 18~34세 청년 누구나2. 모집인원 : 선착순 20명3. 운영내용 : 시간관리 전략 강의(성장하는 청년을 위한 리더쉽 역량강화)- 우선순위에 따른 시간관리의 중요성 인식- 지속적 성과를 위한 실행력 강화 및 효과적인 시간관리 방법4. 운영일시 : 11/29(수) 18:30~20:305. 운영장소 : 남구청년창조발전소(남구 용소로46번길 7)6. 신청방법 : 홈페이지 청년프로그램 게시판 온라인 신청(https://m.site.naver.com/1eQwU)7. 문의처 : 남구 일자리경제과 청년정책팀(051-607-3666~7)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(수영구) 수영청년 자격증 응시료 지원 사업!</t>
+          <t>[사하구] 하반기「청년 경제아카데미」 수강생 모집</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-11-06 ~ 2023-12-15</t>
+          <t>2023-11-07 ~ 2023-11-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023-01-02 ~ 2023-12-15</t>
+          <t>2023-11-29 ~ 2023-11-29</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>기타 / 생애합산 2년 이상 수영구 주민등록자인 미취업 청년</t>
+          <t>기타 / 사하구 거주 또는 활동 청년 20명</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>수영구 일자리경제과</t>
+          <t>사하구/사하구청년창업지원센터</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>051-610-4827</t>
+          <t>051-201-0191</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.suyeong.go.kr/youth/index.suyeong?menuCd=DOM_000003002001000000</t>
+          <t>https://www.saha.go.kr/startup/</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>청년들의 경제 및 금융이해력을 높이고 안정적인 자립을 할 수 있도록 지원하기 위하여부산신용보증재단과 연계한「청년 경제아카데미」수강생을 다음과 같이 모집하오니관심 있는 청년들의 많은 참여바랍니다.- 운영개요 -❍일 시:2023. 11. 29.(수) 14:00 ~ 17:00❍모집기간:2023. 11. 7.(화) ~모집완료 시▷선착순 마감❍대 상:사하구 거주 및 활동 청년20명❍장 소:사하구 청년창업지원센터▷하신중앙로324, 2층(하단동,보해이브빌2차)❍운영주제:부산청년희망 신용상담센터 연계「청년 맞춤형 경제교육」교 육 주 제주 요 내 용비 고ETF를 활용한청년재테크▪ETF란 무엇인가?▪ETF를 활용한 투자방법 교육전세사기대비법▪전세사기 사례를 통한 사회문제 인식▪전세사기 대비법 교육을 통한 전세 사기 예방청년들이가입가능한금융상품안내▪청년 전용 정책 및 금융상품 바로알기▪금융 상품 안내 및 활용방안 설명※신청자에 한해1:1전문가 재무컨설팅 실시: 12. 6.(수) 14:00~16:00❍접수방법:청년창업지원센터 홈페이지 선착순 신청▷www.saha.go.kr/startup❍수 강 료:무료❍문 의:사하구 청년창업지원센터(☎201-0191)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(전국청년) 청년참여 마일리지 제도</t>
+          <t>(수영구) 수영청년 자격증 응시료 지원 사업!</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-07-03 ~ 2023-12-31</t>
+          <t>2023-11-06 ~ 2023-12-15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023-07-03 ~ 2023-12-31</t>
+          <t>2023-01-02 ~ 2023-12-15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>제한없음 / 19세~34세의 전국 청년</t>
+          <t>기타 / 생애합산 2년 이상 수영구 주민등록자인 미취업 청년</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1076,92 +1080,3166 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.suyeong.go.kr/youth/index.suyeong?menuCd=DOM_000003001001000000</t>
+          <t>https://www.suyeong.go.kr/youth/index.suyeong?menuCd=DOM_000003002001000000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>◇ 지원대상- 연령 : 신청일 기준 19세 이상 34세 이하 청년- 주민등록 : 현재 수영구 주민등록 + 생애합산 2년 이상 주민등록자- 근로이력 : 미취업자, 미창업자- 응시관련 : 시험 응시 이후 60일 이내 신청, 자격증 최종 취득여부 무관◇ 지원내용- 어학시험, 한국사능력검정시험, 국가기술자격, 국가전문자격 및 국가공인민간자격 취득 응시료 1인 연 최대 30만원 지원◇ 신청방법- 수영구 청년포털 홈페이지(https://www.suyeong.go.kr/youth/index.suyeong)에서 온라인 신청</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>O-RYUN GETHERING 2023 개최(11.4.-5.)</t>
+          <t>(전국청년) 청년참여 마일리지 제도</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>2023-07-03 ~ 2023-12-31</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>2023-07-03 ~ 2023-12-31</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>제한없음</t>
+          <t>제한없음 / 19세~34세의 전국 청년</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>금정구 일자리경제과</t>
+          <t>수영구 일자리경제과</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>051-519-4874</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>051-610-4827</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.suyeong.go.kr/youth/index.suyeong?menuCd=DOM_000003001001000000</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>청년 누구나 가입만 해도 3만원 드립니다!청년이라면 수영 구정에 참여하고 마일리지(인센티브) 받자!!!수영 구정에 대한 전국 청년들의 관심과 다양한 생각을 구정에 반영하기 위해 「청년참여 마일리지 제도」프로젝트를 추진합니다.청년여러분들의 많은 관심과 참여 바랍니다.○ 참여기간 : 연중 계속○ 참여대상 : 수영 구정에 참여하는19~34세의 전국 청년누구나!!○ 사업내용 : 활동에 따라 적립된 마일리지를 인센티브(포인트)로 전환 지급○ 사업규모 : 500여명, 1인 연 최대 10만 포인트(10만원)○ 참여방법 및 절차① 수영구 청년포털 홈페이지 내 본인인증 → 30,000마일리지 적립!② 수영구 청년포털 홈페이지 내 사업안내 및 적립규정 확인③ 수영 구정에 온·오프라인 참여 활동 → 활동별 2,000 ~ 100,000마일리지 적립④ 50,000마일리지 이상 적립 시 인센티브(포인트)로 전환 지급⑤ 인센티브(포인트)는 부산시 동백전(부산지역화폐) 플랫폼을 통해 정책 지원금 형태로 지급 *동백전 App 설치 및 회원가입 필수⑥ 지급 받은 인센티브(포인트)는 수영구 관내 동백전 가맹점(9천여 개소)에서 현금처럼 사용※ 마일리지 1점당 1포인트(=1원)※ 수영구 청년포털 홈페이지(https://www.suyeong.go.kr/youth/index.suyeong)※ 문 의 처 : 수영구 일자리경제과 ☎051-610-4827</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>O-RYUN GETHERING 2023 개최(11.4.-5.)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>🍄🧑🏽‍🌾🏕⠀🏕 O-RYUN GETHERING 2023 🍄⠀( Ecology🍄 - Art🧑🏽‍🌾 - Technology🏕 )⠀♻️생태♻️예술♻️기술⠀2023. 11. 04 - 05PM 1 - PM 9*🎫 : 무료 Free⠀@ 륜 플레이스 (@5.ryun)⠀옛 버섯재배사의 건물.예술가들의 상상력으로 새로운 공간의 가치를 만들어 내고 있는 곳이다.⠀⠀⠀🌍Day 1⠀⠀1 - 3pm@ Ground⠀🧘🏽🌏🦶🏽신선놀음 : Experience ‘shin-sun’= (Yoga + Earthing + Drawing)(요가 + 오륜대 황토길 걷기 + 명상 드로잉)w/ Teacher ‘Eom Na Kyung’⠀*Pre-reservation Program사전 예약 링크 :https://url.kr/j8qoid(20명 한정)⠀⠀3 - 4pm@ Ryun Village⠀🧑🏽‍🔬 2023 생태-예술-기술 포럼 🧑🏽‍🏫E.A.T Forum (Ecology - Art - Technology)⠀Session 1 : 동의의료원 의무원장 송무호 의학박사‘팬데믹 시대 : 식물식을 통해 면역력을 강화하는 방법’⠀Session 2 : 부산대학교 예술문화영상학과 서대정 교수‘부산 도시재생 : 예술, 문화의 역할에 대하여’⠀⠀4 - 4:40pm@ 3F⠀👂🏽Acoustic &amp; Meditaion ☯️⠀Chan (sitār live)Jiivamukta Dada (meditation)⠀⠀4:40 - 5pm⠀⠀5 - 9pm@ Ryun Village⠀🔊 Sound Bombin’ 🎤⠀DJs최 先生 J-UDJ NatureDJ Dusty DolsMIDASBEATS⠀MCs정승민 (D-track) (LBT KREW)Dong-Gil (LBT KREW)운율 (The Rhyme)⠀⠀⠀⠀⠀🌎Day 2⠀⠀1 - 3pm@ Ground⠀🧘🏽🌏🦶🏽신선놀음 : Experience ‘shin-sun’= (Yoga + Earthing + Drawing)(요가 + 오륜대 황토길 걷기 + 명상 드로잉)w/ Teacher ‘Eom Na Kyung’⠀⠀3 - 4pm@ Ryun Village⠀🧑🏽‍🔬 2023 생태-예술-기술 포럼 🧑🏽‍🏫E.A.T Forum (Ecology - Art - Technology)⠀Session 1 : 부산대학교 도시공학과 정주철 교수‘부산 도시계획의 새로운 방향모색⠀⠀⠀4 - 5pm@ 3F⠀👂🏽Acoustic &amp; Meditaion ☯️⠀나까 (nacca)봄눈별 (Bom-Nun-Byeol)⠀⠀6 -7pm@ 나유타의 부엌 (Nayuta’s Kitchen)⠀South Zero Waste Club - 다회(茶會)⠀*Pre-reservation Program 2⠀⠀5 - 9pm@ Ryun Village⠀🧪 24 7 : Bio &amp; Plastic 💿⠀RADIO REVOLUTIONDASEIN KIMPROS G S YSINA HILL⠀rootsredeem (Live)KANGMOK (Live)⠀⠀⠀⠀⠀⠀@ 륜 플레이스( @5.ryun @ryun_officia1 @nayutas.kitchen )⠀주소 : 부산광역시 금정구 오륜대로 262 (오륜동)(262, Oryundae-ro, Geumjeong-gu, Busan)⠀⠀⠀주최 : 금정구청, 대안문화행동 재미난복수 (@funny.revenge)주관 : 대안문화행동 재미난복수, 륜 플레이스</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Ego 아일랜드(보드게임을 통한 자아찾기)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2023-10-31 ~ 2023-11-27</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>2023-11-28 ~ 2023-11-28</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>제한없음 / 만 18~39세 청년 누구나</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>남구 일자리경제과 청년정책팀</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>051-607-3666</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://m.site.naver.com/1eQvA</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>560</t>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1. 모집대상 : 만18~39세 청년 누구나2. 모집인원 : 선착순 18명3. 운영내용 : 심리탐구 체험 프로그램(보드게임을 통한 자아찾기)4. 운영일시 : 11/28(화) 18:30~20:305. 운영장소 : 남구청년창조발전소(남구 용소로46번길 7)6. 신청방법 : 홈페이지 청년프로그램 게시판 온라인 신청(https://m.site.naver.com/1eQvA)7. 문의처 : 남구 일자리경제과 청년정책팀(051-607-3666~7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[해운대기술교육원] 나를 더 빛나게 하는 스피치 스킬</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2023-11-06 ~ 2023-12-01</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>제한없음 / 취업준비생, 청년층</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>해운대기술교육원</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>051-745-3200</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>해운대기술교육원 청년 취·창업 프로그램 11월 교육생을 모집합니다.취업준비생 및 청년 여러분의 많은 관심 부탁드립니다.&lt;프로그램 개요&gt;프로그램명 : 나를 더 빛나게 하는 스피치스킬프로그램 일정 : 11/6 – 12/1 (매주 월, 수, 금) 10:30 ~ 12:00강사 : 김경아 아나운서장소 : 해운대기술교육원 4층 401호정원 : 15명문의 : 해운대기술교육원 (051-745-3200)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(수영구) 청년 이사비용 지원 사업 [마감임박!!]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-02-21 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2023-02-21 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>제한없음 / 2023년 1월 1일부터 타지역에서 수영구로 전입오는 무주택 청년 가구</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>수영구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>051-610-4827</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.suyeong.go.kr/youth/index.suyeong?menuCd=DOM_000003003002000000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>◇신청기간: 2023. 12. 15.(금)까지*예산 소진 시 조기 종료◇지원대상-청년기준: 19세~34세의 무주택청년 가구(신청일 기준)-전입기준①수영구 외 지역에서 수영구로 전입②전입지의 세대주는 신청자 청년 본인이어야 함③2023. 1. 1부터 전입 및 이사한 자(전입신고 필수)-거주유형:전월세 거주(*거래금액2억원 이하)-소득:건강보험료 부과 기준 중위소득150%이하 가구에 속하는 자◇지원내용-이사비용 최대40만원 한도 내 실비 지원(생애1회,청소비 제외)◇신청방법-수영구청 청년포털 홈페이지(https://www.suyeong.go.kr/youth/index.suyeong)에서 신청◇문 의 처:수영구 일자리경제과☎051-610-4827</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(연제구가족센터) 청년 1인가구 사회적관계망형성 지원사업</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>연제구가족센터</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>051-851-5002</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>💚(연제구가족센터) 연동골목시장&amp;연산동 고분군 역사길 힐링투어💚청년 1인가구의 안정적인 지역 정착과 일상생활 능력 강화를 위한 💚연동골목시장 및 연산동 고분군 역사길 힐링투어💚 참여자를 모집합니다~!🍂 프로그램명 : 1인가구 사회적관계망형성 지원사업 – 배움온🍂 모집대상: 부산시 내 거주 중인 청년 1인가구🍂 모집인원: 20명🍂 활동일시: 2023.10.28(토) 10:00~12:00🍂 활동내용🍁 10:00~10:10 오리엔테이션🍁 10:10~11:10 문화해설사와 함께하는 연산동 고분군 역사길 탐방🍁 11:10~11:30 국악 버스킹 등 문화공연 관람🍁 11:30~12:00 장보기 체험 및 마무리🍂 활동 장소 : 연동골목시장 및 연산동 고분군 역사길🍂 신청 방법: QR 스캔 신청 (※연제구가족센터 홈페이지 로그인 후 신청 가능)🍂 문 의 처: 연제구가족센터 051-851-5002 / 담당자 김화민 070-4268-4192🍂 신청하기:https://m.site.naver.com/1eAIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(부산창업가꿈) 13일만에 쇼핑몰 CEO 되기</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>연제구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>051-850-1053</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>🌟(부산창업가꿈) 3차 청년창업 캠프 참가자 모집🌟어느덧 11월이 코 앞입니다. 올해 안에 CEO 되실 💖열정 청년💖 딱 🔟분만 모십니다!💓 강 의 명: 13일만에 온라인 쇼핑몰 CEO 되기(창업하기)💓 기 간: 2023. 11. 13.(월) ~ 11.29.(수) 15:00~17:30 (13회)💓 장 소: 부산창업가꿈 회의실(부산경상대학교 학생회관 1층)💓 대 상: 39세 이하 예비·초기 창업 청년(연제구 거주자 우선, 선착순)💓 준 비 물: 개인 노트북 또는 태블릿(필수)💓 문 의 처: 부산경상대학교 산학협력단 051-850-1053💓 신청하기:https://m.site.naver.com/1ep1a👀 소수정예로, 꼼꼼하게, 제대로 배우고 바로 실행하실 분 👀 두 팔 벌려 환영합니다🎉</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023 금정피지컬페스타 개최(10/27)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>내·외면의 이상적인 건강함과 강함을 주제로2023금정 피지컬 페스타를 개최하오니 많은 참여 바랍니다.■행사개요⚬기간:2023.10.27.(금) 10:00~19:00⚬장소:온천천 인근(대부교~부산 금정구 장전온천천로101)⚬참여대상:운동에 관심 있는 시민 누구나⚬내용:2023도전!금정구 체력왕을 찾습니다.금정구민의 건강체력을 증진하고 신체활동 참여 문화 확산을 위한“2023금정 피지컬 페스타”모든 신체를 검증하라 페스티벌이 열립니다!경쟁이 아닌 나‘자신’을 성장시키고‘누구나’ ‘함께’즐길 수 있는 금정구 피지컬 축제!꼭 참여해보세요!■행사내용(체력인증)⚬몽키존(메인무대)-메인무대에서 진행하는 체력 검증 챌린지-챌린지를 통해 선발한 시민 명예의 전당 시상식-그랜틴,유솔,박가을 가수와의 음악공연도 함께 즐겨보세요~⚬피지컬존(노동/생활/재난/멘탈)-근력,순발력,악력,펀치력 등 각 부스에서 미션을 통해 나의 신체능력을 검증!⚬3대500존-3대 측정과 기록인증!신기록 격파하기~-금정구에만 있는 특별한 야외헬스장⚬멘탈존-타로:연애,결혼,직장 등 불안한 나의 미래와 마음을 읽어주는 타로상담-내 스트레스는 몇 점?:부산진구 청춘소설과 함께하는 스트레스 측정기를 통해 스트레스와 혈관 건강 상태 측정.알맞은 처방과 진단받기-이너뷰티:각종 건강기능식품,미용 등 건강하고 아름다운 삶을 위한 이너뷰티 제품 만나기⚬이벤트존-금정구를 들어라!:금정구 인구수만큼 들어 인구소멸 위기를 극복하는 챌린지!-피지컬TEST:각 부스에서 진행하는 미션을 클리어 해 나만의‘피지컬TEST’를 완성해보세요.-포토존:포토존에서 사진찍고SNS인증하기!■문의처:청춘연구소 컬처플러스 공식 인스타그램(@youthlab_cultureplus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(연제구가족센터) 청년 1인가구 여가활동지원프로그램</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>연제구가족센터</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>051-851-5002</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>🌊핫한 레저스포츠 서핑 배워봐요🌊가격이 부담스러웠던 분들, 함께 할 지인을 찾기 어려웠던 분들, 서핑에 관심이 있던 분들 모두 환영합니다!청년여가활동지원 프로그램 - 서핑 입문반 참여자를 모집합니다!❤프로그램명: 1인가구 사회적관계망형성지원사업 여가활동지원프로그램❤모집대상: 부산시 거주 중인 1인가구 및 예비 1인가구❤신청자격: 20~39세 부산시 청년 누구나❤비      용: 무료(서핑비용 및 점심식사 제공)❤활동내용: 11시 ~ 12시 - 센터 소개 및 레크레이션12시 ~ 13시 - 점심식사13시 ~ 15시 30분 - 수트환복 및 서핑강습15시 30분 ~ - 자유서핑 및 마무리❤활동장소: 송정 서프홀릭(송정해변로 50)❤신청방법: 네이버폼 신청서 작성(https://naver.me/xWB19FmH)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>커리어이름 프로젝트 회계사무원 양성</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2023-10-23 ~ 2023-11-17</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>부산청년정책연구원</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>051-929-7220</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>경력단절여성 커리어이음 프로젝트 [회계사무원 취업과정]∙ 회계에 대한 이론과 실무 처리 능력 등 관련 기본적 지식을 갖추고, 기업체의 회계실무자로서 전산세무 회계프로그램을 활용한 세무·회계 기본업무를 처리할 수 있는 능력을 습득하도록 함∙ 엑셀을 이용하여 필요한 정보를 수집, 분석, 가공할 수 있는 능력을 습득하도록 함∙ 수료 후 회계 및 일반 사무직 취업을 목표로 함가. 교육일정 : 2023. 10. 23(월) ~ 11. 17(금) / 주 5일나. 교육시간 : 14:00~17:50 (일 4교시)다. 교육대상 : 부산거주 여성 구직자 20명라. 수 강 료 : 무료 (100% 지원)마. 교육내용 : 전산회계 1,2급 자격취득 및 사무직 취업 목표∙ 회계이론∙ 전산회계 프로그램(KcLep) 활용∙ 엑셀 프로그램 활용∙ 워드아트와 그림 활용바. 문의 및 접수 :  051-929-7220∙ 카카오톡 : http://pf.kakao.com/_pxexndG/chat∙ 구글 신청폼 : https://forms.gle/6y5MrERpuhNTvRjX7※ 2023년 국가공인 전산세무회계 제111회 자격시험 일정∙ 원서접수 : 11.02 ∼ 11.08∙ 시험일 : 12.02 (토)∙ 발표일 : 12.21 (목)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[금정 청년 러스틱라운지]원데이 리빙랩 참여자 모집</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>스타트허브</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>051-714-2855</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.geumjeong.go.kr/board/view.geumj?boardId=BBS_0000004&amp;menuCd=DOM_000000124002001000&amp;startPage=1&amp;dataSid=933688</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>□ 모집개요❍ 일    시: 2023 10. 11.(수) ~ 12. 6.(수) 오전 10시 ~ 오후 5시❍ 장    소: 금정구 내(추후 안내)❍ 모집인원 및 대상▷ 회차별 10명 내외 모집▷ 부산 금정구에 거주하는 금정구민▷부산 소재 대학(교)에 재·휴학 중인 대학(원)생❍ 문    의: 금정 청년 러스틱라운지 운영팀 스타트허브(주) ☎ 051-714-2855, glocal@starthub.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[9.20.~9.22.]우리동네 매거진과 함께하는 청년공감영화제_청년프로그램지원사업</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023-09-20 ~ 2023-09-22</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>부산광역시 북구, 주식회사 엔지디, 무사이프렌즈</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>051-309-5171</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://map.naver.com/p/search/%EB%AC%B4%EC%82%AC%EC%9D%B4/place/1436668682?lng=129.0156279⪫=35.2382534&amp;placePath=/booking?bookingRedirectUrl=https://m.booking.naver.com/booking/12/bizes/528748?theme=place&amp;entry=pll&amp;area=pll&amp;c=15.00,0,0,0,dh</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>&lt;2023년 부산시 청년프로그램지원사업&gt;_북구👀청년의 시선으로 바라본 우리동네 북구는 어떠할까요?지난 5월부터 '동네 사람들'이라는 주제로 청년들이 모여 매거진을 만들었습니다. 우리 동네에서 '문화'를 만들어 가는 다양한 사람들을 취재하며, 북구에서 살아가는 이야기들을 담았는데요.'북구 매거진 영화제 - BGMFF (Buk-Gu Magazine Film Festival)'제2회 북구청년주간에 함께 열리는 이번 BGM 영화제에 다양한 세대의 동네 주민들과 함께 매거진과 영화를 재미나게 즐겼으면 합니다. 🙌프리즘의 빛처럼 같은 것을 보더라도 다양한 방향과 색으로 뻗어나가는 각양각색한 이번 영화제에 많은 관심과 참여 부탁드립니다.✔️북구 매거진 영화제 : 2023.09.20.(수)~09.22.(금)✔️북구 매거진 전시 : 2023.09.20.(수)~09.27.(수)✔️영화제&amp;전시 장소 : 복합문화공간 무사이(북구 산성로12번길 21, 우신상가 지하1층)✔️문의 : 무사이 051-362-7004, 인스타그램 @ngd_corp @bsbukgu_youth* ✨GV 초대✨영화를 보고, 영화전문가와 함께 이야기를 나눠봐요!👉&lt;왕십리 김종분&gt; 9/20(수) 오후 7시영화평론가 '김필남'의 영화 해설을 듣고 청년 사회자와 Q&amp;A를 진행합니다. 관객도 질문에 참여하실 수 있어요!👉&lt;어느 가족&gt; 9/21(목) 오후 7시전문 모더레이터 '김아카'와 청년 사회자가 함께 자유로운 토크쇼를 진행합니다.예매 서둘러 주세요! (관람비 무료)📍네이버 '무사이' 검색 후, 네이버 예약을 통해서 사전예매 후 영화 관람이 가능합니다. (영화 관람비 무료)다양한 전시와 영화가 준비되어 있으니, 많이 보러 오세요.#BGM#BGMFF#우리동네매거진#북구매거진#북구영화제#청년프로그램</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>청년 거리예술 활성화 지원사업 '오늘도 공연 한 판 얼쑤!' 공연 안내</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023-09-22 ~ 2023-09-22</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>부산광역시 남구</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>051-607-3664</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['오늘도 공연 한 판, 얼쑤!'공연 안내]2023년 청년거리예술 활성화 지원사업 '오늘도 공연 한 판, 얼쑤!' 4번째 국악공연에 여러분을 초대합니다.- 일시 : 9. 22.(금) 16:00~16:40- 장소 : 부경대 가로수길- 공연단체 : 사운드팩토리 판(국악그룹 초아)- 연주곡 : 가로수그늘아래서 / 홍연 / 인연 등(6곡)- 우천시 일정변동 가능본 프로그램은 2023 부산시 청년 거리예술 활성화 지원사업입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>제2회 영도청년페스타</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>영도구 신성장전략과</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>051-419-4615</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.yeongdo.go.kr/00000/00007/00008.web?gcode=1025&amp;idx=316533&amp;amode=view</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>❍주최/주관:영도구/영도구종합사회복지관❍일 시:2023. 9. 16.(토) 13:00~17:00※청년의 날(9월 셋째 주 토요일)❍장 소:블루포트2021 (봉래나루로138)❍참석대상:청년 등 주민 누구나❍운영내용:‘청년의 날’맞이 청년 문화·체험 행사 등▷문화행사:효진초이 토크콘서트,청년문화공연(버스킹,재즈공연 등)▷체험행사:퍼스널컬러진단,캐리커처,프로필촬영,인생네컷,공예체험,커피 클래스 등(전 부스 무료)▷기 타:청년정책네트워크 정책공유회,캐주얼 의류 플리마켓,푸드트럭 등즐길거리,먹거리,경품 추첨 등 다양한 행사가 마련되었으니 많은 참여바랍니다. 감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>[연제구]청년프로그램 지원사업 - 댕지적 크리에이터 시점 ' '댕댕스쿨' 9월 참여자 모집</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>제한없음 / 부산시 청년(18~34세) 누구나, 클래스당 최대 10명</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>연제구청 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0516655171</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>🐶유기견을 위한 봉사활동, 평소에 해보고 싶었지만 방법을 몰라서 참여하지 못하진 않았나요?유기견을 위한 기부 물품 제작 및 빗질•산책 교육을 ‘댕댕스쿨’에서 함께 받아봐요! 🙌배워서 나누면 기쁨도 두배! 😀댕댕스쿨과 함께 유기견을 위한 봉사활동 프로젝트에 참여할 청년참여자를 모집합니다.🎈프로그램명: 2023년 부산시 청년 프로그램 지원 사업 &lt;댕지적 크리에이터시점&gt; '댕댕스쿨'🎈모집인원: 클래스당 최대 10명, 총 50여명🎈신청자격: 18세~34세 부산시 청년 누구나🎈비 용: 무 료🎈신청기간: 클래스별 일정 전까지 선착순 모집🎈 운영기간 및 내용: 유기견을 위한 기부 및 봉사활동을 위한 클래스 ▶ 클래스당 1회, 월 총 5회1) 강아지 뜨개 장난감 만들기 클래스 9/18(월) 19:00~21:002) 강아지 산책 매너 클래스: 9/19(화) 13:00~15:003) 강아지 뷰티 빗질 클래스: 9/19(화) 16:00~18:004) 강아지 수제간식 만들기 클래스: 9/20(수) 19:00~21:005) 강아지 인식표(네임목걸이) 만들기 클래스: 9/22(금) 19:00~21:00※ 클래스에서 만들어진 물품은 유기견센터에 기부할 수 있으며, 기술(빗질, 산책)은 유기견센터 봉사활동 참여시 활용할 수 있습니다.🎈 운영 장소: 월월월앳더모먼츠 (부산시 연제구 쌍미천로 84번길 6)🎈 신청방법: 홍보 포스터 QR코드 또는 링크 (https://m.site.naver.com/1cEor) 신청※ &lt;댕지적 크리에이터 시점&gt;은 2023년 부산시 청년 프로그램 지원 사업으로, 부산시청, 연제구청, 월월월앳더모먼츠에서 함께 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>소외된 이웃을 찾아가는 청년콘서트 사업</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>영도구 신성장전략과</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>051-419-4615</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>❍목 적:청년예술인의 활동영역 확장 및 문화적 취약계층 문화 향유기회 제공❍주최/주관:부산광역시·영도구/청년예술단체 율파란(8명)❍일시/장소/대상일시9.6.(수) 13:00~14:009.26.(화) 14:00~15:0010.12.(목) 15:00~16:0010.26.(목) 15:00~16:00장소영도구노인복지관분관영도구장애인복지관절영종합사회복지관와치종합사회복지관주요 대상노인장애인노인아동❍내 용:문화 취약계층 시설 방문 청년 국악 공연</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023년 북구 청년 자격시험 응시료 지원사업</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-10-01 ~ 2023-12-10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023-09-01 ~ 2023-12-31</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>기타 / 청일 기준 북구 1년이상 주민등록을 둔 19~34세의 미취·창업 청년 180여명(단 건강보험료 기준중위소득 150% 이하 가구에 속한 자에 한하여 지원)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>부산광역시 북구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>051-309-5172</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.bsbukgu.go.kr/index.bsbukgu?menuCd=DOM_000000103007010005</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>취업에 필요한 어학 및 각종 자격시험 비용 지원을 통해 취업준비 청년의 경제적 부담을 완화하고자 「2023년 북구 청년 자격시험 응시료 지원사업」을 다음과 같이 추진하오니 많은 관심과 참여 부탁드립니다.- (신청기간) 2023. 10. 1. ~ 12. 10.(매월 1~10일) &gt;당해연도 예산소진 시 사업 조기 종료- (지원대상) 신청일 기준 북구 1년이상 주민등록을 둔 19~34세의 미취·창업 청년 180여명&gt;건강보험료 기준중위소득 150% 이하 가구에 속한 자에 한하여 지원- (지원내용) 1인 1종 최대 10만원 어학 등 자격시험 응시료 실비지급&gt; 단, 격년 신청, 생애 최대 3회 가능- (신청방법) 구 홈페이지 온라인 신청- (문 의) 일자리경제과 청년희망팀 309-5172**제출서류 및 자세한 사항은 붙임 공고문 참고**</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(연제구) 청년 요리대회 "K-디저트 만들기" 참가자 모집</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>연제구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>051-665-5172</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>👩‍🍳연제청년창업나래센터 요리대회(K-디저트 만들기) 참가자 모집👨‍🍳🍰 대회 일정✔️일 시: 2023. 9. 18.(월) 13:00~18:00✔️장 소: 연산국제제빵커피학원(연산동 지하철역 16번 출구)✔️주 제: K-디저트 만들기✔️시 상: 1등 50만원(1팀), 2등 30만원(1팀), 3등 각 10만원(2팀)🍰 참가신청✔️참가대상: 부산시 거주 39세 이하 청년(1인 또는 2인 1조) ▷ 연제구 청년 1명 이상 포함✔️신청기간: 2023. 9. 8.(금) 18시까지✔️신청방법- 온라인 참가 신청👉https://m.site.naver.com/1bVhR- 출품작 소개서 등은 이메일 제출 👉 yeonje2021@naver.com🍰 문 의: 연제청년창업나래센터(051-862-3732~3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(연제구) 부산창업가꿈 "청년창업 캠프" 참가자 모집</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>대학생</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>연제구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>051-665-5172</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>✨ 부산창업가꿈 「청년창업 캠프」 참가자 모집 ✨콘텐츠 기반 창업에 관심 있는 연제구 청년이라면 서둘러 주십시오!✅ 참가비 전액 지원(필요한 건 창업에 대한 열정 뿐)✅ 새로운 프로그램으로 3️⃣차도 Coming soon!1️⃣차 👉 웹툰 작가 토크 콘서트💚 일 시: 2023. 9. 14.(목) 15:30~17:30💚 장 소: 부산창업가꿈(부산경상대학교 학생회관 1층)💚 내 용: 웹툰을 만드는 콘텐츠 제작자 초청 특강, 질의응답 등💚 강 사: 마인드C(네이버 웹툰 "윌유메리미" 작가)💚 신 청:https://naver.me/G9t7BvJg2️⃣차 👉 창업 플랫폼 벤치마킹 &amp; 워크숍💚 일 시: 2023. 10. 4.(수) 10:00~16:00💚 장 소: 부산문화콘텐츠콤플렉스(글로벌웹툰센터, 콘텐츠코리아랩 등), 부산창업가꿈💚 내 용: 웹툰 체험 프로그램, 시설 견학, 실전 창업 시뮬레이션, 창업 퀴즈 등💚 신 청:https://naver.me/5WHhfHJK💖 문의처: 부산경상대학교 산학협력단(051-850-1053)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(연제구) 청년창업 토크콘서트 개최</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>연제구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>051-665-5172</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023년 연제구 청년 맞춤형 인재양성 프로그램 &lt;청년창업 토크콘서트&gt;기분 좋은 금요일 저녁🌠 가볍지만 가볍지 않은 시간을 준비했습니다창업에 관심있는 청년은 누구나 부담없이 오셔서 힐링+배움+열정의 시간을 즐기시길 바랍니다 😘✅ 일 시: 2023. 9. 22.(금) 17:30~19:00 (사전 프로그램 16:00~17:30)✅ 장 소: 연제구 복합문화센터 5층(거제대로 180, 거제동)✅ 내 용: 청년CEO(삼진어묵 박용준 대표) 초청특강, 축하공연, 이벤트 프로그램 등✅ 신청은 여기로 👉bit.ly/yeonjechanguptalk✅ 문 의 처: 교육기관 051-717-3858 / 연제구청 051-665-5172</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>[추가모집]금정구 로컬 여행 활성화 아이디어 트래블톤 「나금정구산다」 참여청년 모집</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://rustictravel.imweb.me/24</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>금정구 로컬 여행 활성화를 위한 여행콘텐츠 아이디어 공모전 '나 금정구 산다'참여자 추가모집 하오니 많은 관심과 참여 부탁드립니다.■ 신청링크(공고문/신청서다운로드) :https://rustictravel.imweb.me/24※ 공고문과 홍보자료 내에 기한은 신경쓰지 마시고 접수해주세요.8월 25일(금) 까지 추가 접수 진행합니다.★ 사 업 명: 2023 금정 청년 러스틱트래블 트래블톤 &lt;나금정구산다&gt;★ 접수기간: 추가 공모 ~23.08.25. 24시 까지★ 신청방법: 접수기간 내 공고문 내 참가신청서, 제안서(제안양식, 자유양식 중 택1),동의서 작성 후 날인하여 메일 송부- 서류 제출처: busanycy@naver.com★ 주 제: 금정구 로컬자원 활용 관광 활성화를 도모할 수 있는 모든 아이디어① 관광상품 ② 관광서비스 ③ 관광굿즈 ④기타★ 주요혜택: 선정팀 프로젝트 실행비 지원(개인 또는 팀 별 200만원), 맞춤형 컨설팅, 특강, 우수 아이디어 표창★ 문 의: 담당자 카카오톡 ID @ajnism자세한 내용은 홈페이지 내 공고문을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>「해운대 문화월담」 시즌1 in 반송 8월 공연</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2023-08-26 ~ 2023-08-26</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>해운대구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>749-4831</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>청년 예술가의 넘치는 끼와 재능을 펼칠 수 있는 기회의 장을 마련하고,​문화 소외지역일상에 자연스럽게 스며드는 동네문화 창출을 위한​「해운대 문화월담」시즌1 in반송의8월 공연을 아래와 같이 추진하오니,​지역 청년 예술가 및 주민여러분의 많은 관심 부탁드립니다.&lt;공 연 개 요  &gt;1)일 시:2023. 8. 26. (토) 16:00*매월 마지막 주 토요일16시(이후일정: 9. 23. / 10. 28. / 11. 25. )2)장 소:반송문화마당(반송2동 반송큰시장 인근)3)대 상:관심 있는 청년(지역)예술가 및 주민 누구나4)공연내용: mc윤정섭-오프닝퍼포먼스:해운대문화예술단 오장욱-해운대문화예술단 트로트 공연:남 황성재 단원/여 박지유 단원-시민참여공연:부산가수예술단-트로트 공연:가수 황태산-엔딩 공연:어린이치어리더팀 슈팅스타5)주최/주관:해운대구/해운대구 문화예술단지역 청년 예술인&amp;주민 공연팀 상시 모집❖모집대상:청년 예술인 및 지역 주민○○팀*반송(여)중,영산대 등 지역 학교 동아리 및 지역 예술인(단체)환영※연령 무관/반송동 주민 우대❖모집분야:마술&amp;저글링,보컬,악기,퍼포먼스(댄스 등)※분야 무관❖신청방법:유선 접수 후 현장 오디션 참가※합격자 개별 통보❖혜 택:해운대 문화월담 시즌1공연자격 부여 및 소정의 공연료 지급❖문 의 처:해운대 문화예술단장 김재희(☎010-3449-0811)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>제2회 영도청년페스타</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>제한없음 / 청년 누구나 참여가능</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>영도구/영도구종합사회복지관</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>051-419-4615</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>🍀&lt;제 2회 영도 청년 페스타&gt;🍀9월 16일(토요일) 청년의 날 기념으로 행사가 진행됩니다! 13시부터 17시까지 진행하오니 많은 관심 부탁드립니다:)🔥효진초이 영도 상륙!! 그 유명한 '스우파'의 효진초이 토크 콘서트가 진행되오니 많이많이 와주세요✨퍼스널컬러, 인생네컷, 원데이클래스, 푸드트럭, 프로필촬영 등 다양한 부스 뿐만 아니라 청년들이 직접 공연하는 무대까지!! 이것이 다 공짜~?!⭐모든게 다 선착순이오니 따로 신청하실 필요는 없고 몸만 오시면 됩니다 :)문의사항은 051-413-4661로 전화주세요☎주최: 영도구청x영도구종합사회복지관</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>금정 청년 러스틱트래블 홈페이지 개설 알림</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>지방소멸대응기금 사업의 일환인금정 청년 러스틱트래블 홈페이지가 개설되었습니다.홈페이지 주소 :https://rustictravel.imweb.me/여행 기획자 양성 특강(금캐는여행자), 일일 금정구 로컬 팸투어(금나와라뚝딱)금정구 로컬 트래블톤(나금정구산다) 프로그램 참여 정보와그동안의 프로그램 운영 기록이 담겨있으니많은 관심과 홍보 부탁드립니다^_^</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>'로컬 콘텐츠 크리에이터 무료 특강' 개최(8.16/26)[금정 러스틱트래블]</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://linktr.ee/iruda_pk</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[로컬 콘텐츠 크리에이터 특강]〰️ 신청링크 :https://linktr.ee/iruda_pk📢유튜버를 넘어 로컬콘텐츠크리에이터로살아가야 하는 이유📢더 버는 인플루언서의 인스타그램 브랜딩, 콘텐츠 법칙📢만블은 어떻게, 무엇을 하며 사는가?▁▂▃▅▆✩⃛📢유튜브 로컬콘텐츠 크리에이터, 왜 우리는 연결해야 하는가?(08.16.WED. 17:00~)└ 대한민국 1호 로컬큐레이터, 천안관광두레 최광운 PD님📢더 버는 인스타그램 인플루언서의 브랜딩과 콘텐츠(08.26.SAT. 16:00~)└ '인스타그램 심리학' 저자 부산 대표 마케팅 선생님, 문영호 마케터님📢만블은 어떻게, 무엇을 하며 사는가?(08.26.SAT. 19:00~)└ '세자의 콘텐츠마켓' 1일 만명 방문자 블로거 인플루언서, 옹골찬사람들 정민준 대표님〰️ 신청링크 :https://linktr.ee/iruda_pk🔘 프로그램 상세내용은 신청폼에서 확인해주세요🔘 장 소 : 미정(금정구 부산대 인근,신청자 한해 공유),신청인원에 맞추어 공간확정 예정🔘 대 상 : 부산 내 로컬 콘텐츠 크리에이터로 본업 또는 부업의 새로운 일거리, 부가가치를 만들고 싶은 청년들, 예비 크리에이터들🔘 주요내용&gt;&gt; 크리에이터, 어떻게, 무엇을 하며 사는가?&gt;&gt; 로컬 크리에이터, 어떻게 콘텐츠를 기획하고 만드는가?&gt;&gt; 수익화, 부가가치 창출 노하우&gt;&gt;  Q&amp;A 타임🔘 참가비 전액 무료〰️ 신청링크 : 상단프로필 링크 또는 @iruda_pk 프로필 링크 신청〰️ 문의 : 카카오톡@ajnism 메세지〰️ 금정구러스틱 공식홈페이지 :https://rustictravel.imweb.me/* 정원초과 시 금정구러스틱 공식 홈페이지 가입자 우선 선발 예정#로컬콘텐츠크리에이터 #금정구러스틱트래블#금정구 #청년프로그램 #청년행사 #청년교육#크리에이터교육 #전문가특강 #부산원데이클래스</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>[청년활동 지원]청년 도전 프로그램 뭐든지, 금정에서 운영기관(민간보조사업자) 모집 재공고</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>금정구에서는 청년이 주체가 되는 순수 청년 프로그램 활동 지원으로 청년의 사회참여 및 역량강화와청년 유동인구 활력 증대를 위하여 프로그램 지원기관(보조사업자)을 다음과 같이 모집합니다.○ 신청기간 : 2023. 8. 11.(금) ~ 2023. 8. 21.(월) 18시까지○ 신청자격 : 부산시에 소재하는 법인 또는 단체○ 지원내용 : 지역 내 청년이 주체가 되는 순수 청년활동 프로그램 운영비 2,000만원 지원- 청년이 생산·소비 주체가 되는 다양한 청년활동 프로그램 지원- 금정구만의 지역특색 또는 자원을 연계하고, 지역 내에서 활동하는 모든 청년활동 지원- 취·창업 직접 연계, 직업특화 전문교육·훈련 프로그램 등이 아닌 순수 청년활동 프로그램 사업 중점○ 지원규모 : 2,000만원(1개소 선정)○ 문 의 : 금정구 일자리경제과 청년지원팀 (☎051-519-4874)자세한 사항은 [붙임1-1]공고문을 참고하여 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>[서구]2023년 딱! 서구 오다가다 청년 버스킹 개최</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>부산광역시 서구</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>051-240-6681</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>🌊무더운 여름, 일상생활에 지친 여러분! 오다가다딱!멈춰~~~부산광역시 서구에서 펼쳐지는 열정 넘치는 🌴2023 서구오다가다청년 버스킹🌴의 세계로 초대합니다❤️🎧 음악을 좋아하지만 공연을 관람할 기회가 없었던 분!🎧 역대급 더운 올 여름, 속까지 시원하게 뻥! 뚫고 싶은 분!🎧 사랑하는 가족·연인에게 특별한 추억을 남기고 싶은 분!🎉모두 오다가다 ✨서구✨에서 딱! 멈춰~~~🎉📆공연일시: 8/18(금) ~19(토), 8/25(금) ~ 26(토)⌚ 공연시간: 17:00 ~ 19:00🎤 공연장소: 송도 오션파크 힐링의 광장 및 구덕운동장 열린마당&lt;출연진&gt;★송도해수욕장 오션파크 힐링의광장8/18 (금): 루파매직 / 김나린 / 오름달 / 옐로은 / 아띠클래식8/19 (토): 맑은 / 싱어송라이터 이훈주 / 시닉(CINIC) / 멀티탭밴드 / 모아(MoA)★구덕운동장 열린마당8/25 (금): 플렉스 프로덕션 / 메리코발트 / 베니앤프렌즈 / 노이마 / PNU 가야앙상블8/26 (토): 국악그룹 도시락 / GREENROSE / 삼부자밴드 '노글래시스앤플러스' / 세레나데 / 픽가드※ 공연 내용은 참가자의 사정에 따라 변경될 수 있습니다.-부산광역시 서구-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>[실행비200만원 지원]금정구 로컬 여행 활성화 아이디어 트래블톤 「나금정구산다」 참여청년 모집</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>금정구 로컬 여행 활성화를 위한 여행콘텐츠 아이디어 공모전'나 금정구 산다'트래블톤을 통해지역 관광에 관심 많은 청년들의 다양한 아이디어를 발굴 및 지원하고자 하니 많은 관심과 참여 부탁드립니다.★사 업 명: 2023금정 청년 러스틱트래블 트래블톤&lt;나금정구산다&gt;★접수기간: ~2023. 8. 21. 18:00서류접수★신청방법:접수기간 내 공고문 내 참가신청서,제안서(제안양식,자유양식 중 택1),동의서 작성 후 날인하여 메일 송부-서류 제출처: busanycy@naver.com★주 제:금정구 로컬자원 활용 관광 활성화를 도모할 수 있는 모든 아이디어①관광상품②관광서비스③관광굿즈④기타★주요혜택:선정팀 프로젝트 실행비 지원(개인 또는 팀 별200만원),맞춤형 컨설팅,특강,우수 아이디어 표창★문 의:담당자 카카오톡ID @ajnism자세한 내용은 공고문을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>[금정 러스틱트래블]무념무상_INNER PEACE를 찾아서(7/29)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023 금정구 청년 러스틱 트래블 &lt;금나와라!뚝딱&gt;1st 금정구 로컬 여행 커뮤니티 프로젝트금정구의 숨은 자연 힐링 코스 오륜대에서 진행되는무념무상, 무의식 속의 나를 발견하는 힐링 테라피👀프로그램 내용🌲 황토길걷기 / 🧘요가테라피 / 👫감각드로잉👀제공사항요가매트, 발수건, 오륜대 자연, 요가 테라피 강사,간단한 다과, 커뮤니티 프로그램 등ⓒ 참가비 무료ⓒ PROGRAM HOST : 엄나경ⓒ DATE : 07월 29일(토) 10:00~12:00ⓒ LOCATION : 륜플레이스(부산시 금정구 오륜대로 262)ⓒ LINK :https://naver.me/FTk21GOJINNER PEACE를 찾아서.＊본 사업은 금정구청 2023금정구러스틱트래블 &lt;금나와라!뚝딱&gt; 여행 커뮤니티 프로그램으로 운영됩니다#지금에집중하기 #워케이션 #오륜대#금정구로컬커뮤니티 #금정구여행프로그램#힐링 #테라피 #감각깨우기 #금정구로컬투어</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>[금정 러스틱트래블]로컬-로그 필카투어&lt;필름카메라 배워서 로컬여행 기록하기&gt;(7/26)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2023 금정구 청년 러스틱 트래블 ＜금나와라!뚝딱＞2nd 금정구 로컬 여행 커뮤니티 프로젝트금정구 부산대 젊음의 스트릿 속 필카감성골목길 아카이빙 프로젝트 [로컬로그-필카투어]👀프로그램 내용📷 포토그래퍼 작가님께 배우는 필카 노하우👀제공사항필름카메라(대여), 필카 사용법 노하우, 다과 등ⓒ 참가비 무료ⓒ PROGRAM HOST : 유태환(@a__deepwell)ⓒ DATE : 07월 26일(수) 13:00~16:00(3시간과정)ⓒ LOCATION : Find Our Universe(금정구 장전온천천로101번길 10)ⓒ LINK :https://naver.me/GmVLZt7d로컬_골목길 필카감성으로 기록하기.＊본 사업은 금정구청 2023금정구러스틱트래블 ＜금나와라!뚝딱＞ 여행 커뮤니티 프로그램으로 운영됩니다* 정원초과 시 신청동기 및 SNS 확인을 통한 지난 활동 및 기록들을 기준으로선별될 수 있습니다(정원 00명/00명)#지금에집중하기 #워케이션 #오륜대#금정구로컬커뮤니티 #금정구여행프로그램#힐링 #테라피 #감각깨우기 #금정구로컬투어</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>[금정구 청년기획행사]블루페인팅-파란나라를 보았니(7/27)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>※ 본 프로그램은 금정 청년 러스틱드림의 청년기획행사입니다.💙파란나라를 보았니 - BLUE PAINTING의 파란 화가👩🏻‍🎨를 모집합니다💙💙청년엄빠 대.환.영💙🐟 야외에서 페인팅 해보고 싶은 사람!🦄 예술 체험 프로그램에 관심있는 사람!🐳 직접 페인팅 티셔츠를 만들어보고 싶은 사람!🐬 색다른 경험을 하고 싶은 사람!🎨 프로그램 소개야외 페인팅 프로그램, &lt;파란나라를 보았니-BLUE PAINTING&gt;🎨 모집 기간~23. 07. 26 (금) 18:00까지🎨 모집 인원20명(모집 인원 충족 시 조기 마감)🎨 신청 방법구글폼 : http://m.site.naver.com/1aYL1🎨 행사 일시23. 07. 27 (목) 16:00 ~ 18:00 (약 2시간 소요)* 우천시 일자가 변경될 수 있습니다. 이 경우 사전에 공지 해드립니다.🎨 프로그램 내용&lt;파란 나라 텐트에서 맘껏 BLUE PAINTING&gt;- 본격적인 프로그램 시작 전, 파란 나라 우비를 입어요- 신나는 BGM과 함께 시작!- 파란 나라 주민이 페인팅 안내와 시연을 보여드려요- 이제 여러분이 파란 나라 텐트 안으로 들어가 하얀 티셔츠에 파란 물감을 뿌리고, 칠하고 맘껏 ACTION !!- 우리가 완성한 파란 나라 티셔츠와 함께 기념사진 찰칵!- 마지막으로 마음에 드는 티셔츠를 골라 GET!🎨 문의@ovia_art_ / 카카오톡 ovia_ / 010-사오공일-오일공오</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>[금정구 청년기획행사]재재재재_연극뮤지컬예술인포럼(7/29)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>※ 본 프로그램은 금정 청년 러스틱드림의 청년기획 행사입니다.📢 부산의 연극•뮤지컬 분야 예술가를 모십니다! 👏부산에서 예술가로 살아남을 수 있을까?🤷에서 시작된 부산 청년예술인 포럼 &lt;재재재재: 연극·뮤지컬&gt;은 신진/예비예술인이 한 데 모여 우리의 생존에 대해 말하는 프로그램입니다.🟡 네 사람의 발제와🟢 다함께 하는 토의,🔵 이를 바탕으로 정리해 보는 나의 생각,그리고 🟣 청년 예술인 네트워킹 파티로 구성됩니다.♦️ 프로그램 개요✔️일시 : 2023. 7. 29. (토) 오후 3~8시✔️장소 : 청년창조발전소 꿈터플러스 5층 (부산 금정구 금정로 63-1)✔️대상 : 공연예술(연극·뮤지컬) 분야 신진/예비예술인 20인 내외✔️참가비 : 5,000원❗ 이런 사람 대-환영✔️예술 활동을 하며 크고 작은 어려움에 부딪힌 경험이 있는 사람✔️예술 활동을 시작하고 싶은데 뭘 어떻게 해야 할지 막막한 사람✔️청년 예술인 동료를 만들고 싶은 사람✔️부산을 떠야 하나 고민하고 있는 사람🎀모집 개요✔️모집 기간 : 2023. 7. 18. (화) ~ 7. 26. (수) 18:00까지✔️신청 방법 : http://forms.gle/Nnvp6KW9WJXvDnS18✔️모집 대상 : 부산에서 활동하는 신진/예비예술인 20인 내외└ 기획, 연출, 배우, 무대, 음향, 조명, 영상, 극작, 작곡 등 모든 분야└ 미성년자는 참가가 어렵습니다... 😥 sorry...✔️선정 안내 : 7. 26. (수) 이후 개별 안내🌈 참가비 환불 규정▪ 행사 3시간 전까지 불참 의사 표명 시 전액 환불▪ 7. 29. (토) 오후 12시 이후 환불 불가</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>[금정구 청년기획행사] 올빼미올나이트영화제 (7/29)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>※본 프로그램은 금정 청년 러스틱드림의 청년기획행사입니다.🦉올빼미 영화제 : 청춘이 뭔데 ?🦉올빼미영화제는 영화📽를 수단으로 다양한 이야기를 나누는 밤새 컨텐츠입니다 ! 잠 못이루는 수 많은 밤들중에 하나를 올빼미 영화제로 채워보세요영화 한토막, 토크 한토막 , 핑거푸드와 월컴드링크 한토막가장 솔직해 질 수 있는 시간, 여러분과 함께 합니다❕☑️전체 행사 시간 :부산대학교 카페 문달래 / 오후 11:00 ~ 오전 04:301회차 : 7월 29일 ( 토요일 )☑️신청 방법행사명 : 올빼미 영화제 : 도대체 청춘이 머야 ?참여대상 : 영화를 좋아하고 이야기를 나누고 싶은 모든 사람 !참가비용 : 보증금 5,000원문의사항 : 인스타 계정 @offbeat0618신청링크에서 간단한 설문조사를 작성하시면 모바일 문자 또는 카톡 메시지로 참여 티켓이 발행됩니다참여 티켓에 명시된 계좌로 보증금을 입금시 참가 신청이 완료됩니다 보증금은 행사가 종료 즉시 돌려드립니다☑️신청링크 :​https://www.offbeat.busan.kr/shop_view/?idx=7✔️FAQ : 자주 묻는 질문1 ) 보증금 반환은 어떻게 되나요 ?행사가 종료된 시점에서 현금으로 바로 돌려드립니다 !2 ) 조금 말수가 적은편인데 괜찮을까요 ?말수가 없으신 분들은 말이 없는 것이 아니라 듣는 재주가 좋으신 분들입니다 없으면 안되는 소중한 사람입니다 !</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>[금정구 청년기획행사]소셜다이닝 LOG Project</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>※ 본 프로그램은 금정 청년 러스틱드림의 청년기획행사입니다.🍽소셜다이닝 LOG Project🍽📍Long for a Great life📍LOG : 기록, 기록하다삶, 사람, 일을 이야기하고 기록하고 싶은 우리!함께 모여 먹고 이야기 나눠 볼까요?☑️행사안내: 인스타그램 @socialdining_log☑️모집인원 : 회차별 최대 7명☑️모집기간 : 7.21(금) 12:00 ~ 7.26(수) 12:00, 7월 26(수) 행사장소 및 상세 내용 문자 안내☑️신청링크 : http://bit.ly/소셜다이닝로그‼중복 불가, 선착순❌, 각 주제 다름유의‼☑️모집대상 및 행사일정❤1회 사랑하고, 소통하고 싶은 30대-7.30(일) 12:30~15:00💛2회 삶의 중간정산이 필요한 30대-7.30(일) 17:30~20:00💚3회 내 일과 사이드잡을 가진 30대-7.31(월) 19:00~21:30☑️행사장소 : 부산대 인근(참가자 별도 안내)☑️문의사항 : 인스타그램 DM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>[금정구 청년기획행사]생태로운 감각활동</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>※ 본 행사는 금정 청년 러스틱드림의 청년기획 프로그램입니다💚금정띵작 - 생태로운 감각활동💚일상에 지친 그대여🤦 🤦‍♂️윤산 생태숲에서 산책하고, 먹고, 해먹치고, 낮잠자면서 하루를 쉬어가지 않으실래요?🙋 갑갑한 일상에 지쳐버렸다면!🙋‍♂️ 해먹에서 낮잠 자보고 싶다면!🙋 함께 윤산 등산해보고 싶다면!🙋‍♂️ 생태프로그램 참여해보고 싶다면!🌿 행사 일정2023년 7월 29일 (토요일) 13:00~18:00 번개 예정*우천시 일정 변경되며, 사전 안내해드립니다🌿 모집 인원부산에 있는 청년이라면 누구나 6명!🌿 신청 방법신청폼 작성 : https://naver.me/FkdJSHU2🌿 프로그램 내용몸풀기운동-✔️윤산둘레길 산책-휴식 및 점심(제공)-✔️숲교감활동-✔️해먹낮잠-✔️윤산정상-자유시간-하산-마무리운동🌿 참여 문의-010.오공구공.이팔일이</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>[청년기획행사]금정구, 동구밭장터 개최(7/27~28)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>※ 본 프로그램은 금정 청년 러스틱드림 사업의 청년 문화기획 행사입니다.🐶동구밭장터를 소개합니다🌽동구밭장터는 다양한 의미의 리사이클링을 실천하는 플리마켓입니다!취미를 리사이클링하는 동취미마켓과 환경을 구제하기 위해 구제옷을 리사이클링하는 구제하장이 지역 주민들을 위해 뭉쳤는데요다양한 취미용품과 빈티지의류, 그리고 이벤트들도 많이 준비했으니 열심히 준비한 리사이클링 플리마켓, 동구밭 장터에 놀러오세요~!🐶🥔 일정 : 2023. 07. 27(목) ~ 07.28(금)🥦 운영시간 : 16 : 00 ~ 21 : 00🌽 장소 : 온천천어울마당 일대(부산대 지하철역 아래 문화행사장 일대)🍅 문의 : @donggufarm_market DM 또는 카카오톡 https://open.kakao.com/o/sA006stf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>[금정구]2023년 청년프로그램 지원사업 "누구나 코딩" 참여자 모집 안내</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>금정구</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>카카오톡 '고개서동'</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>‘누구나 코딩’  :  남녀노소 누구나 쉽게 배우는 코딩"코딩 너무 어려운거 아닌가? 나도 과연 코딩이란걸 할 수 있을까?"챗GPT, 앱개발, AI 등등 전세계적인 코딩 열풍속에서 아직도 여전히 많은 분은코딩이라는 것을 들어는 봤지만, 마음먹지 않으면 실제로 접하기는 어려운 현실입니다.필수교육으로 지정된 초,중,고 학생들은 그나마 접할 기회가 있지만,기초지식이 부족한 우리에게는 직업학교나 학원, 온라인 교육등  부담스러운 선택지만 존재하구요.그래서 고민끝에 조금이나마 청년들에게 코딩 경험을 제공해드리고자, 무료교육을 진행하려 합니다.교육을 통해 코딩의 기본을 이해하고, 자신의 발전을 위한 시간이 되었으면 하고,수료후 결과물로 지역사회에 작게나마 기여할 수 있는 기회를 누리셨으면 좋겠습니다.누구나코딩 2기는 8~11월 매주2시간씩 총 32시간의 교육을 통해 파이썬의 기초와 최종적으로 지역사회와 관련한 간단한 웹사이트를 결과물로 만들 예정입니다.아래 내용 참고해 문의주시면 친절하고 자세한 안내 도와드리겠습니다 :)[일정 및 정보]○ 일정 : 2023.08. ~ 11. 매주 수요일 저녁 7시○ 시간 : 19:00 ~ 21:00○ 장소 : 고개서동 공간 택 1(모든 공간들은 금정구 서동에 위치해 있습니다.)○ 모집인원 : 6명 내외○ 준비물 : 개인노트북, 교재(희망시 구입)○ 비용 : 무료*’누구나 코딩’은 참석비 전액무료로 진행됩니다.[이런 분에게 추천합니다.]○ 코딩에 관심이 있는 분들○ 코딩에 재능과 흥미가 있는지 확인하고 싶은분들○ 코딩 관련한 진로를 정하기에 앞서 기초를 다지고 싶은 분들○ 코딩이 어떤 것인지 경험해보고 싶은분들[신청방법]○ 카카오톡 @고개서동 으로 쪽지 남겨주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(수영구) 수영청년 자격증 응시료 지원 사업!</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-07-21 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>기타 / 생애합산 2년 이상 수영구 주민등록자인 미취업 청년</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>수영구청</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>051-610-4827</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://www.suyeong.go.kr/youth/index.suyeong?menuCd=DOM_000003002001000000</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>◇ 지원대상- 연령 : 신청일 기준 19세 이상 34세 이하 청년- 주민등록 : 현재 수영구 주민등록 + 생애합산 2년 이상 주민등록자- 근로이력 : 미취업자, 미창업자- 소득 : 건강보험료 부과 기준 중위소득 150% 이하 가구에 속하는 자- 응시관련 : 시험 응시 이후 60일 이내 신청, 자격증 최종 취득여부 무관◇ 지원내용- 어학시험, 한국사능력검정시험, 국가기술자격, 국가전문자격 및 국가공인민간자격 취득 응시료 1인 연 최대 30만원 지원◇ 신청방법- 수영구 청년포털 홈페이지(https://www.suyeong.go.kr/youth/index.suyeong)에서 온라인 신청</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>[금정구 청년기획행사] 2023 고민변기 챌린지 개최</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-7월23일부터7월29일까지 부산도시철도1호선 부산대학교 지하철역 역사 내 개최-고민을 들어주는 변기라는 독특한 컨셉으로 청년 정책에 대한 개인의 목소리를 듣고자 기획-표현에 대한 욕구를 풀어주는 다양한 프로그램 예정부산 금정구에서는 청년들의 삶에 관심이 많은 문화기획팀 변기통(이하 팀 변기통)과 함께&lt;2023고민변기 챌린지&gt;를 개최합니다.인간의 가장 내밀한 공간인 화장실 한편에서 무슨 이야기를 하든 묵묵히 듣고만 있는 변기통이 세상 밖으로 나와 더 많은 사람의 이야기에 귀 기울인다는 컨셉으로 준비된 본행사는2023년7월23일 부산대학교역에서29일까지 일주일간 진행되며 행사장에서는 고민 패대기, 30초 자유낙서와 속사정 질문카드 등 표현의 욕구를 풀어줄 다양한 프로그램을 만날 수 있으며 세상에 단 하나뿐인 고민을 들어주는 변기와 함께하는 포토존이 제공됩니다.행사가 끝난 후 팀 변기통은 참여자들이 익명으로 써준 고민과 의견들을 모두 취합하여 부산의 정책입안자 및 자치단체장에게 청년 각 개인의 사정과 생각들을 청년 정책에 반영해달라는 부탁과 함께 전달할 예정이라고 합니다.자세한 내용은 팀 변기통 공식 인스타그램(@project_participation)을 통해 확인할 수 있으며,궁금한 점은 인스타그램DM을 통해서도 문의할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>연제구 "부산창업가꿈" 입주청년 모집</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-07-19 ~ 2023-12-31</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>제한없음 / 예비창업자 또는 초기창업자(창업 7년 이내)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>연제구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>051-665-5172</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>청년 창업 지원을 위해 부산경상대학교와 컨소시엄으로 운영하는 연제구 도심형 청년 창업주거 복합공간(공간명: 부산창업가꿈) 입주자를 모집하니, 역량 있는 청년 창업가들의 많은 참여 바랍니다.○모집기간: 2023. 7. 19.~ 모집 시까지○입주공간:연제구 부산창업가꿈“창업공간”(부산경상대학교 학생회관1층)▷1인실(102호, 103호) 2개,창업카페1개○입주대상:입주신청일 기준18세 이상39세 이하 예비창업자 또는 초기창업자○모집분야:디지털콘텐츠,디지털마케팅, IT,디자인 등(디지털콘텐츠 분야 업종 우선 모집)○신청방법:제출서류 전자우편 접수▷kjd1261@bsks.ac.kr○문 의 처:부산경상대학교 산학협력단 김제동 부팀장(☎051-850-1052)※상세내용은 공고문 참고</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>[청년기획행사] 금정구 아트편의점 행사 개최 (7/14~16)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>색이 다른 9명의 디자이너들이 펼치는 색다른 아트페어 신진 디자이너의 작품을 아트편의점에서 판매합니다.★ 일정 : 2023년 07.14(금요일) ~ 07.16일(일요일)★ 파트타임시간: 오전10시~저녁8시★ 장소: 꿈터플러스 1층 (부산 금정구 63-1)사전 참가신청 이벤트도 있으니 자세한 내용은 청춘연구소 컬처플러스 인스타그램 @youthlab_cultureplus에서 확인바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023 금정 청년 로컬크리에이터 지원사업 추가모집(~7/17까지)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>051-714-2855 (스타트허브 주식회사)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>부산 금정구의 지역자원과 특성을 기반으로 지역 내 사회적 문제를 혁신적인 비즈니스 아이디어로 결합해 사업적 가치를 창출하는 청년 로컬크리에이터를 발굴, 성장지원하기 위해금정 청년 로컬크리에이터 지원 사업 참여기업을 추가모집하오니, 많은 관심과 참여 바랍니다.○ 사업명 : 2023년 금정 청년 로컬크리에이터 지원사업○ 사업목적- 부산 금정구의 지역자원과 특성을 기반으로 지역 내 사회적 문제를 혁신적인 비즈니스 아이디어로 결합해 사업적 가치를 창출하는 청년 로컬크리에이터 발굴 및 성장 지원- 부산 금정구 소재 청년 (예비)창업가 대상 재무적·비재무적 지원(맞춤형교육 및 멘토링 등)을 통한 지역 내 민간 일자리 창출 및 지역경제 활성화○사업대상- 금정구 로컬크리에이터로 창업하거나 창업예정인 만 19 ~ 39세 이하 청년 (예비)창업가 및 창업 7년 이내 기업· 모집공고일 기준 사업장 주소지 및 창업예정지가 금정구이어야 함· 모집공고일 기준 주민등록상 부산 거주자 대상에 한하며 금정구민 우대- 로컬크리에이터 7대 분야 비즈니스 모델을 기반으로 창의적 아이디어를 제시하는 자○ 접수기간 : (추가모집) 2023. 7. 10.(월) ~ 7. 17.(월) 17:00까지○ 접수방법- 금정구(www.geumjeong.go.kr) 홈페이지에서 지정양식 다운로드 후 이메일(glocal@starthub.kr) 접수· 제출서류 일체는 순번에 맞춰 PDF로 제출· 제출 시 파일명은 “2023 금정 청년 로컬크리에이터 지원사업 신청서_신청기업명(신청자명)”○ 문의 : 051-714-2855 (스타트허브(주) 금정 청년 로컬크리에이터 운영팀)기타 자세한 사항은 공고문을 참고하시기 바랍니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>(접수마감)와인 도전기에 참여할 와린이를 찾습니다</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>신청폼: http://m.site.naver.com/1aZ72랜딩페이지: 인스타그램 @newbie_challenge문의: 인스타그램 @newbie_challenge /🤍💜와인 도전기에 참여할 와린이를 찾습니다💜🤍🍷 와인에 관심은 있지만 왠지 어렵다고 느꼈던 사람 🙋🍷 내 취향에 맞는 와인 고르는 법을 알고 싶은 사람 🙋🍷 와인을 쉽고 재밌게 배워보고 싶은 사람 🙋🍷 와인과 함께 이야기를 나눠보고 싶은 사람 🙋🍇 프로그램 소개&lt;와린이를 찾아라! : 와린이를 위한 와인 도전기&gt; 1회차🍇 모집 기간~23. 07. 21 (금) 18:00까지🍇 모집 인원20~30대 청년 4명(모집 인원 충족 시 조기 마감)🍇 행사 일시23. 07. 22 (토) 13:00 ~ 16:00 (약 3시간 소요)🍇 행사 장소부산대역 인근, 웨더하우스🍇 프로그램 내용&lt;1부&gt;-와인에 대해서 : 와인 기본지식, 5가지 특징, 시음 방법 등 정보를 드려요-와인 시음: 와인 별 간단한 설명과 함께 시음, 시음 노트를 기록해봅니다-와인 취향 공유: 각자의 감상과 취향을 공유해요-Q&amp;A&lt;2부&gt;-샹그리아 만들기: 와인을 보다 쉽게, 샹그리아를 만들어요-까나페 만들기: 와인과 함께 할 까나페도 만들어요-도전해 보지 못했던 것들에 대한 TALK: 와인과 까나페를 먹으며 그동안 와인처럼 도전해 보고 싶었지만 도전하지 못했던 것들에 대한 이야기를 나눠요&lt;마무리&gt;-와인OX퀴즈: 배운 내용을 바탕으로 와인 OX퀴즈! 소정의 상품도 준비 완료!🍇 참여혜택-6종류의 와인 시음 기회 🍾-직접 만드는 나만의 샹그리아 🍋-미니 와인잔 2P 🥂-퀴즈 우승 및 우수리뷰 선정 시 '빌라욜란다 모스카토다스티' 증정 🍾🍇 문의인스타그램 @newbie_challenge</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>파란나라를 보았니 - BLUE PAINTING의 파란 화가(참여자) 모집(20명/선착순)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>🤍💙파란나라를 보았니 - BLUE PAINTING의 파란 화가👩🏻‍🎨를 모집합니다💙🤍🐟 야외에서 페인팅 해보고 싶은 사람!🦄 예술 체험 프로그램에 관심있는 사람!🐳 직접 페인팅 티셔츠를 만들어보고 싶은 사람!🐬 색다른 경험을 하고 싶은 사람!🎨 프로그램 소개야외 페인팅 프로그램, &lt;파란나라를 보았니-BLUE PAINTING&gt;🎨 모집 기간~23. 07. 20 (금) 18:00까지🎨 모집 인원20명(모집 인원 충족 시 조기 마감)🎨 신청 방법구글폼 : http://m.site.naver.com/1aYL1🎨 행사 일시23. 07. 21 (금) 13:00 ~ 15:00 (약 2시간 소요)* 우천시 일자가 변경될 수 있습니다. 이 경우 사전에 공지 해드립니다.🎨 프로그램 내용&lt;파란 나라 텐트에서 맘껏  BLUE PAINTING&gt;- 본격적인 프로그램 시작 전,  파란 나라 우비를 입어요- 신나는 BGM과 함께 시작!- 파란 나라 주민이 페인팅 안내와 시연을 보여드려요- 이제 여러분이 파란 나라 텐트 안으로 들어가 하얀 티셔츠에 파란 물감을 뿌리고, 칠하고 맘껏  ACTION !!- 우리가 완성한 파란 나라 티셔츠와 함께 기념사진 찰칵!- 마지막으로 마음에 드는 티셔츠를 골라 GET!🎨 문의인스타그램 @ovia_art_ / 카카오톡 ovia_ /</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>금정산성막걸리X자주 팝업스토어 개최(7/15)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>부산 청년이 뭉쳐서 대한민국 민속주1호 금정산성막걸리를 리브랜딩합니다!고브리🍹,쟈비🍶,사바리🥣가 함께 하는&lt;금정산성막걸리X자주 팝업스토어&gt;금정산성막걸리 오리지널부터 막테일까지 시음도 해보고,귀여운 캐릭터 굿즈도 팡팡팡!!&lt;프로그램&gt;-고브리,쟈비,사바리 굿즈:금정산성막걸리를 리브랜딩하며 탄생한 캐릭터 굿즈 이벤트-찾아가는 양조장:금정산성막걸리에서 직접 막걸리 제조 시연,막걸리 키트 제공(사전신청-마감)-금정산성막걸리비누 만들기:금정산성막걸리 지게미로 막걸리 비누를 만드는 체험 프로그램(사전신청-마감)-금정산성막걸리 시음회:금정산성 막걸리8도, 6도,청탁과 함게 막테일도 맛볼 수 있어요2023년7월15일 토요일14:00~20:00문화카페MERGE에서 딱 하루!!여러분을 찾아갑니다😋문의 및 사전신청: 인스타그램 @sanmakgeol_popup</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023 금정띵작 페스타 개최(7월 한달간)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>051-519-4874</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>지방소멸대응기금 사업인 ' 금정 청년 러스틱라이프-러스틱드림'에서7월 한달간 특별한 축제를 개최합니다.22명의 청년들이 5월부터 직접 기획한 프로그램을 실행하는 과정인데요!새로운 관점에서 색다르게 시도해보는 금정구의 문화행사에 많은 관심과 참여 부탁드립니다.(자세한 일정 첨부파일-통합포스터이미지 참고해주세요)참여방법 : 인스타그램 청춘연구소 컬처플러스 @youthlab_cultureplus  관련 게시글 신청링크 가기※ 아트편의점 팝업스토어, 금정산성막걸리x자주 팝업스토어, 동구밭장터 이외 행사는 사전신청하셔야 참여가능합니다~!문      의 : 인스타그램 청춘연구소 컬처플러스 @youthlab_cultureplus  관련 게시글 계정 접속&gt; 메시지 문의</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>[금정구]2023년 청년프로그램 지원사업 "누구나 더빙" 참여자 모집 안내</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>금정구</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>카카오톡 '고개서동'</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>‘누구나 더빙’ : 애니메이션, 영화 대본으로 이뤄지는 실감나는 더빙영어"영어 한마디 조차 하기 어려운 내가, 영어로 더빙을 한다고!?” .저는 오랫동안 취미생활로 연극 연출,연기를 해왔습니다. 또한 영어는 잘하진 못하지만, 영어공부에도 꽤 진심인 편이었죠.우연히 무대에 선다는 기분으로 영어공부를 한다면, 쫌 더 효과적인 학습이 이뤄지지 않을까? 라는 생각을 가지게 되었습니다.그렇게 1여년간 영여연극, 더빙 모임을 운영하였지만, 코로나의 여파로 모임은 사라지게 되었습니다.그리하여 다시 한번 영어연극, 더빙 모임 &lt;누구나더빙&gt; 을 진행해 보고자 합니다.단, 너무 차원이 높은 영어공부를 원하시는 분들은 힘드실수도 있습니다.가볍게 영어를 즐기면서 재미를 찾아가는 모임이라 생각하시면 좋으실 것 같습니다.애니메이션, 영화 대본 더빙을 통해 발음과 발성에 집중하고, 다양한 청년들과 함께 색다르고 즐거운 영어공부 시간이 되길 기대합니다. 당연히 모임 비용은 무료입니다.모임을 통해 작은 결과물로 모임이 진행되는 장소 서동을 알리는 영어 내래이션도 결과물로 제작할 예정이라 자기개발 및 지역사회에 작은 보탬이 되는 기회도 누릴 수 있습니다.11월까지 매월 둘째, 넷째주 목요일 2시간씩 진행되며 부담없이 편하게 문의주신뒤 참석하시면 됩니다!아래 내용 참고해 연락주시면 친절하고 자세한 안내 도와드리겠습니다 :)[일정 및 정보]○ 일정 : 2023.07. ~ 11. 둘째, 넷째주 목요일○ 시간 : 19:30 ~ 21:30○ 장소 : 고개서동 공간 택 1(모든 공간들은 금정구 서동에 위치해 있습니다.)○ 모집인원 : 6명 내외○ 준비물 : 없음○ 비용 : 무료 *’누구나 더빙’은 참석비 전액무료로 진행됩니다.[이런 분에게 추천합니다.]○ 재미있게 즐기면서 영어공부를 하고 싶은분○ 건전하고 색다른 취미생활을 찾는 분○ 자기개발과 지역사회에 보탬이 되고 싶은분[신청방법]○ 카카오톡 @고개서동 으로 쪽지 남겨주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>[금정구]2023년 청년프로그램 지원사업 "누구나 코딩" 참여자 모집 안내</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>금정구</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>카카오톡 '고개서동'</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>‘누구나 코딩’ : 남녀노소 누구나 쉽게 배우는 코딩"코딩 너무 어려운거 아닌가? 나도 과연 코딩이란걸 할 수 있을까?"챗GPT, 앱개발, AI 등등 전세계적인 코딩 열풍속에서 아직도 여전히 많은 분은 코딩이라는 것을 들어는 봤지만, 마음먹지 않으면 실제로 접하기는 어려운 현실입니다.필수교육으로 지정된 초,중,고 학생들은 그나마 접할 기회가 있지만, 기초지식이 부족한 우리에게는 직업학교나 학원, 온라인 교육등 부담스러운 선택지만 존재하구요.그래서 고민끝에 조금이나마 청년들에게 코딩 경험을 제공해드리고자, 무료교육을 진행하려 합니다.교육을 통해 코딩의 기본을 이해하고, 자신의 발전을 위한 시간이 되었으면 하고, 수료후 결과물로 지역사회에 작게나마 기여할 수 있는 기회를 누리셨으면 좋겠습니다.누구나코딩 2기는 8~11월 매주2시간씩 총 32시간의 교육을 통해 파이썬의 기초와 최종적으로 지역사회와 관련한 간단한 웹사이트를 결과물로 만들 예정입니다.아래 내용 참고해 문의주시면 친절하고 자세한 안내 도와드리겠습니다 :)[일정 및 정보]○ 일정 : 2023.08. ~ 11. 매주 목요일○ 시간 : 10:00 ~ 12:00○ 장소 : 고개서동 공간 택 1(모든 공간들은 금정구 서동에 위치해 있습니다.)○ 모집인원 : 6명 내외○ 준비물 : 개인노트북, 교재(희망시 구입)○ 비용 : 무료 *’누구나 코딩’은 참석비 전액무료로 진행됩니다.[이런 분에게 추천합니다.]○ 코딩에 관심이 있는 분들○ 코딩에 재능과 흥미가 있는지 확인하고 싶은분들○ 코딩 관련한 진로를 정하기에 앞서 기초를 다지고 싶은 분들○ 코딩이 어떤 것인지 경험해보고 싶은분들[신청방법]○ 카카오톡 @고개서동 으로 쪽지 남겨주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>[금정구]2023년 청년프로그램 지원사업 "소셜다이닝 한끼식사" 참여자 모집</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>기타 / 20~30대 청년</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>금정구</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>카카오톡 '고개서동'</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>청춘들을 위한 식사시간 - 소셜다이닝 한끼식사 : [함께하는 식사를 매개로 대화를 통한 힐링 시간]하루하루 특별한 소통 없이 그저 그런 일상을 지내시나요? 어쩌면 혼자 먹는 밥상이 너무 외롭게 느껴지나요?그렇다면 소셜다이닝 - 한끼식사에 참여해 보는건 어떠세요?"소셜다이닝 한끼식사는 청춘들을 위한 식사시간입니다."한끼식사는 2030세대들이 일상 속에서 겪는 고충 또는 외로움을 새로운 사람들을 만나 식사를 매개로 대화를 통해 마음을 채우는 시간을 가진답니다.처음 본 사람들과 함께 정해진 메뉴를 같이 요리하고, 식사준비를 같이 하면서 대화를 통해 서로의 일상을 다양하게 공유 합니다.요리 못해도 상관없어요~ 다이닝 운영자께서 여러분을 도와드립니다. 채소 씻기, 설거지, 그릇과 수저를 배치하는 것도 아주 큰 도움이 된답니다.! 중요한 건 여러분은 즐겁게 분위기를 즐기시면 된답니다.함께 준비한 식사를 하면서 자기소개를 하고 서로의 대화를 자유롭게 나눕니다. 직접 준비한 음식을 자랑하기도 하고 오늘 있었던 일에 대해서 얘기하기도 하며 요즘 너무 고민되었던 일에 대해서도 얘기를 합니다. 모두들 그 시간을 온전히 힐링한답니다.소셜다이닝 한끼식사를 통해 새로운 만남과 힐링을 원하시는 분은 한끼식사에서 만나길 바랍니다.[일정 및 정보]○ 일시 : 7월 2,4주 목요일 저녁 19:00 ~ 21:00○ 장소 : 공유주방 서동부엌 (금정구 서동로 91번길 7. 1층)○ 모집인원 : 6명 ○ 준비물 : 없음 (필요시 연락드립니다.)○ 비용 : 무료 *소셜다이닝 - 한끼식사는 참석비 전액무료로 진행됩니다.[이런 분에게 추천합니다.]○ 타인에게 요리를 해주는것에 기쁨을 느끼는 분○ 혼자보다는 다 같이 밥 먹는 것이 좋은 분○ 새로운 사람들 만나고 소통하고 싶은 분○ 소통을 통해 힐링을 하고 싶은 분.[신청방법]○ 카카오톡 @고개서동 으로 쪽지 남겨주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>「금정구 청년 구직응원 패키지 지원사업」 대상자 모집</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-07-20 ~ 2023-12-20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2023-07-20 ~ 2023-12-20</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>금정구</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>519-4875</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://www.geumjeong.go.kr/index.geumj?menuCd=DOM_000000126016007000</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>청년의 능력개발 및 구직활동 촉진을 위한 비용 지원으로 청년의 실질적 자립기반 형성 및 사회참여 역량 강화에 기여하고자「금정구 청년 구직응원 패키지 지원사업」대상자를 모집하오니 많은 관심과 참여 바랍니다.○ 신청기간:2023. 7. 20.(목) ~ 12. 20.(수)까지▷ 기간 중 상시 신청 가능※ 예산 소진 시 조기 마감○ 지원대상: 금정구 거주 만19세 이상 만39세 이하 미취업청년 중 아래 요건을 모두 충족하는 자▷ 연령: 2023.1.1. 기준 만19세 이상 ~만39세이하 청년(1984.1.1.~2004.12.31. 출생자)▷ 주민등록: 신청일 기준 주민등록상 금정구에 1년 이상 거주한 자▷ 근로이력: 신청일 기준 미취업자 및 정부직접일자리 사업 참여자(공공근로, 희망근로 등 민간취업 지원을 위해 지원 가능)▷ 신청대상: 2023.1.1.부터 실시한 자격 시험 응시자 또는 워크넷 구직등록자 중 입사지원자○ 지원내용▷ 자격증 응시료: 1인 연1회 10만원 한도 실비지원▷ 이력서 사진 촬영비: 1인 연1회 3만원 한도 실비지원○ 지원방법: 시험 응시 또는 입사 지원 후 사후 신청(본인명의 개인계좌 입금)○ 신청방법: 온라인 신청 ▷ 이메일 신청(subingoogu@korea.kr)※ 자세한 사항은 붙임파일 또는 금정구청 홈페이지(www.geumjeong.go.kr) &gt; 복지정보 &gt; 청년정책 &gt; 청년 구직응원 패키지 지원사업을 참고하여 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(수영구) 청년 이사비용 지원 사업</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-02-21 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2023-02-21 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>제한없음 / 2023년 1월 1일부터 타지역에서 수영구로 전입오는 무주택 청년 가구</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>수영구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>051-610-4827</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://www.suyeong.go.kr/index.suyeong?menuCd=DOM_000003003002000000</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>◇ 신청기간 : 2023. 12. 15.(금)까지 *예산 소진 시 조기 종료◇ 지원대상- 청년기준 : 19세~34세의 무주택 청년 가구 (신청일 기준)- 전입기준① 수영구 외 지역에서 수영구로 전입② 전입지의 세대주는 신청자 청년 본인이어야 함③ 2023. 1. 1부터 전입 및 이사한 자 (전입신고 필수)- 거주유형 : 전월세 거주 (*거래금액 2억원 이하)- 소득 : 건강보험료 부과 기준 중위소득 150% 이하 가구에 속하는 자◇ 지원내용- 이사비용 최대 40만원 한도 내 실비 지원(생애 1회, 청소비 제외)◇ 신청방법- 수영구청 청년포털홈페이지(https://www.suyeong.go.kr/youth/index.suyeong)에서 신청◇ 문 의 처 : 수영구 일자리경제과 ☎051-610-4827</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>(수영구) 청년 참여 마일리지 제도</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-07-03 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2023-07-03 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>제한없음 / 19세~34세의 전국 청년</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>수영구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>051-610-4827</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://www.suyeong.go.kr/youth/index.suyeong</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>청년 누구나 가입만 해도 3만원 드립니다!청년이라면 수영 구정에 참여하고 마일리지(인센티브) 받자!!!수영 구정에 대한 전국 청년들의 관심과 다양한 생각을 구정에 반영하기 위해 「청년참여 마일리지 제도」 프로젝트를 추진합니다.청년여러분들의 많은 관심과 참여 바랍니다.○ 참여기간 : 2023. 7. 3.(월)부터 *예산 소진 시 조기 종료○ 참여대상 : 수영 구정에 참여하는 19세~34세의 전국 청년 누구나○ 사업내용 : 활동에 따라 적립된 마일리지를 인센티브(포인트)로 전환 지급○ 사업규모 : 500여명, 1인 연 최대 10만 포인트(10만원)○ 참여방법 및 절차① 수영구 청년포털 홈페이지 내 본인인증 → 30,000마일리지② 수영구 청년포털 홈페이지 내 사업안내 및 적립규정 확인③ 수영 구정에 온·오프라인 참여 활동 → 활동별 2,000 ~ 100,000마일리지 적립④ 50,000마일리지 이상 적립 시 인센티브(포인트)로 전환 가능⑤ 인센티브(포인트)는 부산시 동백전(부산지역화폐) 플랫폼을 통해 정책 지원금 형태로 지급 *동백전 App 설치 및 회원가입 필수⑥ 지급 받은 인센티브(포인트)는 수영구 관내 동백전 가맹점(9천여 개소)에서 현금처럼 사용※ 마일리지 1점당 1포인트(=1원)※ 수영구 청년포털 홈페이지(https://www.suyeong.go.kr/youth/index.suyeong)※ 문 의 처 : 수영구 일자리경제과 ☎051-610-4827</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>남구 동네 청년공간 '월간집밥' 행사 안내</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>부산광역시 남구</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>051-607-3665</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>남구 동네 청년공간 '공간숲' &lt;6월 월간집밥모임 : "치킨스튜"&gt; 안내📣이번 주제는 "나의 무모했던 경험" 입니다!💁‍♂️“저는 초등학생때 빵과 쿠키를 너무 좋아해서 집에 있는 밀가루로 빵을 만들어본 적이 있어요. 당시에 발효의 개념이 없어서 결국엔 익지 않은 밀가루 반죽을 한입 먹고 버린 기억이 있어요. 실패를 경험삼아 책을 한 권사서 쿠키를 다시 구워 주변사람들과 나누었던 경험이 있어요.”숲지기 햄미니의 이야기에요. 여러분들은 어떤 무모했던 경험이 있으신가요? 참 궁금해요.공간숲에서 함께 나누어요.📅일시 : 2023.06.26 (월) 18:30~21:00📍장소 : 사람이 이어지는 공간숲(남구 용소로14번길 10, 2층)👨‍🍳모집인원 : 8명**월간집밥모임은 함께 요리하고, 나누어 먹는 소셜다이닝 프로그램입니다.💌이런 분에게 추천합니다!!➡함께 먹는 밥의 맛을 아는데 기회가 없었던 분.➡요즘 사람들이랑 따뜻한 한 끼의 밥을 먹고 싶었던 분.➡요리해보고 싶지만, 마음만 가지고 있던 분.➡일상이 무료하고 새로운 사람들을 만나고 싶으신 분.📢신청하기"https://bit.ly/월간집밥모임6월" 에 접속또는 인스타 프로필 링크를 참고해주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023년 『금정 청년 로컬크리에이터 지원 사업』 참여자(참여기업) 모집</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>금정구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>051-714-2855 (스타트허브 주식회사)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>부산 금정구의 지역자원과 특성을 기반으로 지역 내 사회적 문제를 혁신적인 비즈니스 아이디어로 결합해 사업적 가치를 창출하는청년 로컬크리에이터를 발굴, 성장 지원하기 위해 &lt;금정 청년 로컬크리에이터 지원 사업&gt; 참여기업을 모집하오니, 많은 관심과 참여 바랍니다.○ 사업명 : 2023년 금정 청년 로컬크리에이터 지원 사업○ 사업대상- 부산 금정구 로컬크리에이터로 창업하거나 창업예정인 만 19~39세 이하 청년 예비 창업가 및 창업 7년 이내 기업· 모집공고일 기준 사업장 주소지 및 창업예정지가 금정구이어야 함· 모집공고일 기준 주민등록상 부산 거주자 대상에 한하며 금정구민 우대- 로컬크리에이터 7대 분야 비즈니스 모델을 기반으로 창의적 아이디어를 제시하는 자○ 지원규모 : 13개팀 / 총 260백만원(팀당 20백만원)○ 문 의 처 : 스타트허브(주) 금정 청년 로컬크리에이터 운영팀- 전화 : 051-714-2855, 이메일 : glocal@starthub.kr자세한 내용은 붙임파일을 참고하여 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>연제구]청년프로그램 지원사업 - 댕지적 크리에이터 시점 ' '댕댕스쿨' 6월 참여자 모집</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2023-06-15 ~ 2023-06-18</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>제한없음 /  만18세~만 34세 부산시 청년 누구나, 클래스당 최대 10명</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>연제구청</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0516655171</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>🐶유기견을 위한 봉사활동, 평소에 해보고 싶었지만 방법을 몰라서 참여하지 못하진 않았나요?유기견을 위한 기부 물품 제작 및 빗질•산책 교육을 ‘댕댕스쿨’에서 함께 받아봐요! 🙌배워서 나누면 기쁨도 두배! 😀댕댕스쿨과 함께 유기견센터 봉사활동 프로젝트에 참여할 청년참여자를 모집합니다.🎈프로그램명: 2023년 부산시 청년 프로그램 지원 사업 &lt;댕지적 크리에이터시점&gt; '댕댕스쿨'🎈모집인원: 최대 5~10명🎈신청자격: 만18세~만 34세 부산시 청년 누구나🎈신청기간: 클래스별 일정 전까지 선착순 모집🎈 운영기간 및 내용: 유기견센터 기부 및 봉사활동을 위한 클래스 ▶ 클래스당 1회, 월 총 5회1) 강아지 기본 빗질 클래스: 6/15(목) 16:002) 강아지 인식표 만들기 클래스: 6/16(금) 19:003) 강아지 기본 산책 클래스: 6/17(토) 13:004) 강아지 장난감 만들기 클래스: 6/18(일) 13:005) 강아지 수제간식 만들기 클래스: 6/18(일) 16:00※ 클래스에서 만들어진 물품은 유기견센터에 기부할 수 있으며, 기술(빗질, 산책)은 유기견센터 봉사활동 참여시 활용할 수 있습니다.🎈 운영 장소: 월월월앳더모먼츠 (부산시 연제구 쌍미천로 84번길 6)🎈 신청방법: 홍보 포스터 QR코드 접속 또는https://m.site.naver.com/qrcode/view.naver?v=19t0r/ 전화(0507-1334-6576) 신청※ &lt;댕지적 크리에이터 시점&gt;은 2023년 부산시 청년 프로그램 지원 사업으로, 부산시청, 연제구청, 월월월앳더모먼츠에서 함께 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023년 영도 청년 자격증 응시료 지원사업</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-02-06 ~ 2023-12-22</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>구직자 / 영도구에 1년 이상 주민등록을 둔 만 19 ~ 34세 미취업 청년</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>영도구청 신성장전략과</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>051-419-4611</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://www.yeongdo.go.kr/00672/00673/04144.web</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>영도 청년의 취업 역량 강화를 위한「2023년 영도 청년 자격증 응시료 지원사업」신청 안내❍ 신청기간 : 2023. 2. 6. ~ 2023. 12. 22. *예산 소진 시 조기 마감될 수 있음❍ 대    상 : 영도구에 1년 이상 주민등록을 둔 만 19세 ~ 34세의 미취업 청년❍ 지원자격증 : 국가기술자격증, 토익, 토익스피킹, 오픽, 텝스, 지텔프, 플렉스, HSK, JPT, JLPT❍ 지원금액 : 제출 서류 검토 후 선정자에 한하여 연 1회 최대 8만원 지원❍ 신청방법 : 영도구 → 분야별정보 → 일자리 → 청년 자격증 응시료 지원 게시판에 신청서 작성 및 제출 서류 업로드❍ 접 수 처 : https://www.yeongdo.go.kr/00672/00673/04144.web❍ 문    의  : 영도구청 신성장전략과 ☎ 419-4611</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023년 서부산권 일자리 박람회 개최</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2023-06-21 ~ 2023-06-21</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>구직자</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>부산광역시 북구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>051-309-5221~2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>www.busanjobfair.co.kr</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>취업을 희망하는 구직자에게는 일자리를, 기업체에는 필요한 우수 인재 채용 기회를 제공하여 지역주민의 실업 해소 및 지역경제 활성화 제고를 위한 「2023년 서부산권 일자리박람회 」를 개최하오니 많은 관심과 참여 바랍니다.○ 행 사 명 : 2023년 서부산권 일자리박람회○ 일 시 : 2023. 6. 21.(수) 14:00~17:00﻿﻿○ 장 소 : 강서체육공원 실내체육관○ 행사규모 : 참가기업 60개사, 구직자 1,000여명○ 내 용 : 기업현장 채용면접, 홍보관, 부대행사(이력서 무료 사진촬영, 타로이벤트 등)○ 주최/주관 : 북구, 강서구, 부산북부고용노동지청, 부산경제진흥원, 한국산업단지공단 부산지역본부○ 홈페이지 : www.busanjobfair.co.kr ​○ 문 의 : 북구청 취업정보센터 051-309-5221~2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>청년우호지대 NEXTGROUD 단서찾기-영도청년을 찾습니다!</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2023-06-02 ~ 2023-12-30</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>기타 / 영도에 거주하거나 또는 거주하고 싶은 청년 누구나</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>영도구청 신성장전략과</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>051-419-4614</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>○제 목:영도 청년을 찾습니다!○내 용-사 업 명:2023년 영도 인구활력화지원사업“청년우호지대NEXT GROUND단서찾기”-사업내용▸매달 열리는 영도청년모임「영도로연결될지-도」▸영도를 살아가는 청년들의 이야기를 모아 지역사회에 알리는「영터뷰」▸청년이 영도에서 지속하기 위한 대안을 찾는「넥스트그라운드포럼」영도에서 연결해보지 않을래요?-신청대상:영도에 살거나,살고 싶은 또는 관심 있는 청년 누구나-모집기간: 2023. 6월~연중 계속-신청방법: litt.ly/youngdo또는QR코드 접속을 통한 신청-기타문의:영도구&lt;심오한연구소&gt; Bora / simba Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023년『해운대 청년채움공간』청년 마켓 [채움] 개최 안내</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>해운대 청년채움공간</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>051-647-0915</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>&lt; 2023년『해운대 청년채움공간』청년 마켓[채움] &gt;❍일 시:2023. 6. 10.(토) 15:00 ~ 19:00❍장 소:해운대 아틀리에 칙칙폭폭 광장(구,해운대 역사)❍대 상:청년채움공간 입주기업 및 지역 청년 소상공인 창업자(20개 부스)❍주요내용-청년채움공간 입주기업 및 지역 청년창업자의 상품 판매 플리마켓-이벤트 부스 및 포토존 운영,기념품 배부 등❍ 문  의: 해운대 청년채움공간 운영사무국☏051-647-0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>원데이 취업클래스(호텔취업의 모든 것)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2023-05-23 ~ 2023-05-23</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>기타 / 누구나</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>부산지방고용노동청부산동부지청</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>051-760-7287</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>남구 동네 청년공간 '공간숲' 오픈주간 행사 안내</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>부산광역시 남구</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>051-607-3665</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>남구 동네 청년공간 '공간숲' &lt;오픈행사&gt; 개화 : 공간숲이 열렸습니다지난 3월 공간숲에 드나드는 사람들이 살아나는 곳이면 좋겠다는 마음으로 잠들어 있던 공간 👀이곳저곳을 😍따뜻한 체온으로 데웠어요.이제 5월이 되어 아직 부족하지만 공간오픈을 축하하고 서로의 마음에 불씨를 틔우는 자리를 마련하려고 해요.❤️‍🔥개화(改火) 라는 말은 조선 시대에, 궁중과 지방의 각 관아에서 보관하던 불씨를 계절마다 새 불로 갈아 주던 행사라고 해요.계절에 따라 새로 불씨를 만들어 음양의 기운이 순조로워 지고, 질병을 피할 수 있다는 풍습에서 유래했다고 하더라구요.당신이 품고있는 불씨도 참 궁금해요.🤔 무엇을 좋아하세요? 무엇을 시도하고 싶으세요?마음을 채워주는 따뜻한 🍜잔치국수와 새콤한 비빔국수를 먹으며, 사계절을 닮은 나만의 불씨를 공간숲에서 찾아봐요. 그리고 특별한 나무도 심어보세요.🥰편히 오세요. 즐거운 마음으로, 이곳은 사람이 이어지는 공간숲 입니다.🗓행사일시①1일차 : 05.19.(금) 15:00~22:00②2일차 : 05.20.(토) 13:00~20:00🚩행사장소사람이 이어지는 공간숲(부산 남구 용소로 14번길 10, 2층)*주차공간이 마련되어 있지 않으니 가급적 대중교통을 이용해주세요 :)📢프로그램안내🧶공예활동 : 나를 살리는 연결(보석십자수)🖼참여형 전시 : 🎨그림책 숲 / ✏️끄적끄적글공작소(미션완수시 🧁초코나무숲머핀 획득) / 🃏어서와요,나만의 숲 / 한 줄 일기🍜소셜다이닝 : 함께 만드는 밥상(금요일 잔치국수, 토요일 비빔국수)🌳숲 트레킹(사전신청필요) : 숲속으로_숲해설가와 함께하는 남구 UN공원 한바퀴+나무연필 만들기 체험🪧스탬프투어 : 활동에 참여하시면 특별한 기념품을 드려요!☎️문의 : 051-607-3665📢참여안내 : 'bit.ly/공간숲오픈행사' 또는 인스타프로필링크(@sai42_forest) 참고𖤐"숲속으로"프로그램을 제외한 모든 활동은 현장참여가 가능해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>[남구] 2023 청년 희망 아카데미</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>기타 / 만18세 이상 ~ 만 39세 이하 청년</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>남구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>051-607-3661</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>http://ycpsgo.or.kr</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>남구에서는 청년들의 진로 탐색을 위해 다양한 분야의 현직자 특강을 개최하오니, 관심 있는 청년들의 신청 바랍니다.○ 사업개요- 사 업 명 : 2023년 청년 희망 아카데미- 사업기간 : 2023년 5월 ~ 6월- 대      상 : 만 18~39세 이하 청년○ 신청안내- 신청기간 : 특강일 전일까지- 신청방법 : 청년창조발전소 홈페이지에서 온라인 신청(http://ycpsgo.or.kr/)► 청년프로그램 ► 청년 희망 아카데미 ► 성명, 연락처 기재 후 댓글 작성- 문의사항 : 남구 일자리경제과 ☎051-607-3661</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>[금정구]2023년 청년프로그램 지원사업 "누구나 더빙" 참여자 모집 안내</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2023-05-01 ~ 2023-11-30</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>기타 / 20~30대 청년</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>금정구청</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>카카오톡 '고개서동'</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2023년 청년프로그램 지원사업 "누구나 더빙" 참여자 모집‘누구나 더빙’ : 애니메이션, 영화 대본으로 이뤄지는 실감나는 더빙영어"영어 한마디 조차 하기 어려운 내가, 영어로 더빙을 한다고!?”저는 오랫동안 취미생활로 연극 연출,연기를 해왔습니다. 또한 영어는 잘하진 못하지만, 영어공부에도 꽤 진심인 편이었죠.우연히 무대에 선다는 기분으로 영어공부를 한다면, 쫌 더 효과적인 학습이 이뤄지지 않을까? 라는 생각을 가지게 되었습니다.그렇게 1여년간 영여연극, 더빙 모임을 운영하였지만, 코로나의 여파로 모임은 사라지게 되었습니다.그리하여 다시 한번 영어연극, 더빙 모임 &lt;누구나더빙&gt; 을 진행해 보고자 합니다.단, 너무 차원이 높은 영어공부를 원하시는 분들은 힘드실수도 있습니다. 가볍게 영어를 즐기면서 재미를 찾아가는 모임이라 생각하시면 좋으실 것 같습니다.애니메이션, 영화 대본 더빙을 통해 발음과 발성에 집중하고, 다양한 청년들과 함께 색다르고 즐거운 영어공부 시간이 되길 기대합니다. 당연히 모임 비용은 무료입니다.모임을 통해 작은 결과물로 모임이 진행되는 장소 서동을 알리는 영어 내래이션도 결과물로 제작할 예정이라 자기개발 및 지역사회에 작은 보탬이 되는 기회도 누릴 수 있습니다.11월까지 매월 첫째, 셋째주 목요일 2시간씩 진행되며 부담없이 편하게 문의주신뒤 참석하시면 됩니다!아래 내용 참고해 연락주시면 친절하고 자세한 안내 도와드리겠습니다 :)[일정 및 정보]○ 일정 : 2023.05. ~ 11. 첫째, 셋째주 목요일○ 시간 : 19:00 ~ 21:00○ 장소 : 금정구 서동로 91번길 7 2층 서동영화○ 모집인원 : 5명 내외○ 준비물 : 없음○ 비용 : 무료 *’누구나 더빙’은 참석비 전액무료로 진행됩니다.[이런 분에게 추천합니다.]○ 재미있게 즐기면서 영어공부를 하고 싶은분○ 건전하고 색다른 취미생활을 찾는 분○ 자기개발과 지역사회에 보탬이 되고 싶은분[신청방법]○ 카카오톡 @고개서동 으로 쪽지 남겨주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>[금정구]2023년 청년프로그램 지원사업 "누구나 코딩" 참여자 모집 안내</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2023-05-01 ~ 2023-11-30</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>금정구청</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>카카오톡 '고개서동'</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2023년 청년프로그램 지원사업 "누구나 코딩" 참여자 모집‘누구나 코딩’ : 남녀노소 누구나 쉽게 배우는 코딩"코딩 너무 어려운거 아닌가? 나도 과연 코딩이란걸 할 수 있을까?"챗GPT, 앱개발, AI 등등 전세계적인 코딩 열풍속에서 아직도 여전히 많은 분은코딩이라는 것을 들어는 봤지만, 마음먹지 않으면 실제로 접하기는 어려운 현실입니다.필수교육으로 지정된 초,중,고 학생들은 그나마 접할 기회가 있지만,기초지식이 부족한 우리에게는 직업학교나 학원, 온라인 교육등 부담스러운 선택지만 존재하구요.그래서 고민끝에 조금이나마 청년들에게 코딩 경험을 제공해드리고자, 무료교육을 진행하려 합니다.교육을 통해 코딩의 기본을 이해하고, 자신의 발전을 위한 시간이 되었으면 하고,수료후 결과물로 지역사회에 작게나마 기여할 수 있는 기회를 누리셨으면 좋겠습니다.11월까지 총 2기로 운영되며 (5~7월/8~11월) 매주2시간씩 총 64시간(기수당 32시간)의 교육을 통해 파이썬의 기초와 최종적으로 지역사회와 관련한 간단한 웹사이트를 결과물로 만들 예정입니다.아래 내용 참고해 문의주시면 친절하고 자세한 안내 도와드리겠습니다 :)[일정 및 정보]○ 일정 : 2023.05. ~ 11. 매주 목요일○ 시간 : 10:00 ~ 12:00○ 장소 : 금정구 서동로 82 청년창업촌 1층 102호 카페 102○ 모집인원 : 5명 내외 ○ 준비물 : 개인노트북, 교재(희망시 구입)○ 비용 : 무료 *’누구나 코딩’은 참석비 전액무료로 진행됩니다.[이런 분에게 추천합니다.]○ 코딩에 관심이 있는 분들○ 코딩에 재능과 흥미가 있는지 확인하고 싶은분들○ 코딩 관련한 진로를 정하기에 앞서 기초를 다지고 싶은 분들○ 코딩이 어떤 것인지 경험해보고 싶은분들[신청방법]○ 카카오톡 @고개서동 으로 쪽지 남겨주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>[금정구]2023년 청년프로그램 지원사업 "소셜다이닝 한끼식사" 참여자 모집 안내</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2023-05-01 ~ 2023-11-30</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>기타 / 20~30대 청년</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>금정구청</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>카카오톡 '고개서동'</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2023년 청년프로그램 지원사업 "소셜다이닝 한끼식사" 참여자 모집청춘들을 위한 식사시간 - 소셜다이닝 한끼식사 : [함께하는 식사를 매개로 대화를 통한 힐링 시간]하루하루 특별한 소통 없이 그저 그런 일상을 지내시나요? 어쩌면 혼자 먹는 밥상이 너무 외롭게 느껴지나요?그렇다면 소셜다이닝 - 한끼식사에 참여해 보는건 어떠세요?"소셜다이닝 한끼식사는 청춘들을 위한 식사시간입니다."한끼식사는 2030세대들이 일상 속에서 겪는 고충 또는 외로움을 새로운 사람들을 만나 식사를 매개로 대화를 통해 마음을 채우는 시간을 가진답니다. 처음 본 사람들과 함께 정해진 메뉴를 같이 요리하고, 식사준비를 같이 하면서 대화를 통해 서로의 일상을 다양하게 공유 합니다.요리 못해도 상관없어요~ 다이닝 운영자께서 여러분을 도와드립니다. 채소 씻기, 설거지, 그릇과 수저를 배치하는 것도 아주 큰 도움이 된답니다.! 중요한 건 여러분은 즐겁게 분위기를 즐기시면 된답니다. 함께 준비한 식사를 하면서 자기소개를 하고 서로의 대화를 자유롭게 나눕니다. 직접 준비한 음식을 자랑하기도 하고 오늘 있었던 일에 대해서 얘기하기도 하며 요즘 너무 고민되었던 일에 대해서도 얘기를 합니다. 모두들 그 시간을 온전히 힐링한답니다.소셜다이닝 한끼식사를 통해 새로운 만남과 힐링을 원하시는 분은 한끼식사에서 만나길 바랍니다.[일정 및 정보]○ 일시 : 2023.05. ~ 11. 매주 둘째, 넷째주 목요일 19:00 ~ 21:00○ 장소 : 공유주방 서동부엌 (금정구 서동로 91번길 7. 1층)○ 모집인원 : 5명○ 준비물 : 없음 (필요시 연락드립니다.)○ 비용 : 무료 *소셜다이닝 - 한끼식사는 참석비 전액무료로 진행됩니다.[이런 분에게 추천합니다.]○ 타인에게 요리를 해주는것에 기쁨을 느끼는 분○ 혼자보다는 다 같이 밥 먹는 것이 좋은 분○ 새로운 사람들 만나고 소통하고 싶은 분○ 소통을 통해 힐링을 하고 싶은 분.[신청방법]○ 카카오톡 @고개서동 으로 쪽지 남겨주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023 남구 청년, 마음건강캠페인</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-05-02 ~ 2023-11-29</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2023-05-31 ~ 2023-11-29</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>남구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>051-607-3666</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://bit.ly/44n5mL2</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>남구 청년 마음건강 캠페인 참여자를 모집합니다.1. 운영기간 : 2023. 5. ~ 11.2. 모집대상 : 만18~39세 청년 누구나3. 모집인원 : 매월 10명 내외4. 운영내용 : 정신건강 선별검사 및 상담5. 운영시간 : 매월 마지막 주 수요일 16:00~18:00- 상반기 : 5월 31일(수), 6월 28일(수)- 하반기 : 7월 26일(수), 8월 30일(수), 9월 20일(수), 10월 25일(수), 11월 29일(수)※ 필요시 일정변경 가능6. 운영장소 : 남구청년창조발전소 1층, 커뮤니티 공간(남구 용소로46번길 7)7. 신청방법 : 홈페이지 청년프로그램 게시판 댓글 작성(https://bit.ly/44n5mL2)8. 문  의  처 : 일자리경제과 청년정책팀(051-607-3666~7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>부산청년센터 박람회</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>부산청년센터</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>𝟎𝟓𝟏-𝟐𝟒𝟏-𝟕𝟖𝟔𝟒</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>❙ 부산청년센터 ❘ 청년센터박람회-ˏˋ청년센터박람회ˊˎ-안녕하세요. 부산청년센터에서 개관 2주년을 맞아〈청년센터박람회〉 를 개최합니다-!다채로운 체험과 사회초년생 청년을 위한 상담이준비되어 있으니, 따스한 봄날과 함께 〈청년센터박람회〉에 많은 참여 부탁드립니다.❍ 행사일시 ❘ 𝟐𝟎𝟐𝟑. 𝟒. 𝟐𝟖. - 𝟒. 𝟐𝟗. (2일간)❍ 행사장소 ❘ 부산청년센터 3층❍ 행사안내 ❘ 상담 : 무료법률‧재무설계‧재테크❘ 체험 : MBTI 심리상담, 퍼스널컬러❍ 신청방법 ❘ @youthcenter 프로필 링크트리❍ 행사문의 ❘ 𝟎𝟓𝟏-𝟐𝟒𝟏-𝟕𝟖𝟔𝟒</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>[남구]월간집밥모임 : 취향을 나누는 집밥</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>남구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>051-607-3665</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>♡ 월간집밥모임 : 취향을 나누는 집밥 ♡"때로는 사람들과 함께 먹는 따뜻한 밥 한 끼가 그리울 때가 있더라구요."
+맛있는 밥 한 끼에 처음 보는 사람들이 가까워지고, 추웠던 마음이 채워질 수 있다고 믿어요.
+제가 그랬거든요~ 혼자 먹는 밥보다 함께 이야기하며 만들어 먹는 밥이 참 맛있었어요.
+내가 만들었다는 자부심도 생기고, 성취감도 느낄 수 있구요.
+그래서 매달 한 번씩 모여서 서로 어떻게 지냈는지 일상도 나누고, 갓 지은 밥을 먹으며 마음도 채워보는 시간을 가져보려고 해요.
+시간이 되시면 누구나 오셔서 편히 식사 나누어요.
+칼을 한 번도 만져보지 않았더라도, 요리를 못하더라도 괜찮습니다.
+무엇을 하면 좋을지 알려드릴 테니 편히 오세요!
+맛있는 밥을 먹으며 이야기들도 나누어 볼 예정이에요.이번 주제는 "나의 취향을 드러내는 음식들" 입니다!"저는 굽거나 날것의 물고기는 먹지만 물에 빠진 물고기를 먹지 않아요. 비릿한 향이 느껴지거든요~ 그 맛을 느끼고 싶지 않아서 대구탕을 별로 선호하지 않아요. 그리고 생굴을 안좋아해요. 생굴의 식감을 견딜수가 업어요..ㅠ"
+숲지기 나무의 이야기에요. 여러분들은 어떤 음식에 대한 취향들을 가지고 계신가요? 참 궁금해요. 공간숲에서 만나요~!!○ 일시 : 2023.04.19 (수) 18:30~21:00
+○ 장소 : 사람이 이어지는 공간숲(남구 용소로14번길 10, 2층)
+○ 모집인원 : 8명
+○ 준비물 : 센스넘치는 식재료 한가지를 소량 준비해와주세요. ex)쌀, 대파, 양파, 계란, 당근 등※ 월간집밥모임은 재료를 가져와서 함께 요리하고, 나누어 먹는 소셜다이닝 프로그램입니다.
+♥ 이런 분에게 추천합니다!!
+○ 함께 먹는 밥의 맛을 아는데 기회가 없었던 분.
+○ 요즘 사람들이랑 따뜻한 한 끼의 밥을 먹고 싶었던 분.
+○ 요리해보고 싶지만, 마음만 가지고 있던 분.
+○ 일상이 무료하고 새로운 사람들을 만나고 싶으신 분.
+♥ 신청하기
+http://bit.ly/공간숲참여 에 접속 후 신청
+또는 인스타 프로필 링크를 참고해주세요!
+* 월간 집밥 모임은 매달 1회 진행될 예정이에요.
+누구나 다음 모임의 요리사가 되어보실 수 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>농협목우촌 또래오래 부산경남지사 청년 창업지원</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2023-04-03 ~ 2023-12-29</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>기타 / 만20~39세 미취업자</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>농협목우촌 외식사업부 부산경남지사</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>051-381-8484</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>남구청년창조발전소 연장운영 안내</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2023-04-01 ~ 2023-12-31</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>남구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>051-607-3666</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>청년이라면 누구나 이용가능한 남구청년창조발전소 1층 커뮤니티 공간이 4월 1일부로 연장운영됩니다.이용에 참고 부탁드립니다.1. 운영시간- 월~금 : 오전 10시 - 오후 9시(대관은 오후 8시까지)- 토요일 : 오전 10시 - 오후 7시(대관은 오후 6시까지)2. 위치 : 남구 용소로46번길 7(부경대학교 정문 맞은편 GS편의점 골목 안)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>청년Flex 프로그램 참가자 모집</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>부산청년정책연구원</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>070-4266-1799</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://linktr.ee/youthflex</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>부산진구와 부산청년정책연구원에서 운영하는 청년Flex공간 2023년 프로그램 참가자를 모집하고자 합니다.♥모든 프로그램 참가비 무료(다과·도서 제공)♥• (상시 프로그램) 총 4개- 도서관 운영- 물품 보관소- 물품 대여- 공간 대여※ 이용시간 11:00 ~ 19:00 (주말 및 공휴일 휴무)• (특별 프로그램) 총 5개- 진로/취업 특강- MBTI 진로컨설팅- 독서 모임- 원데이 클래스- 퍼스널컬러 or 면접컨설팅※ 특별 프로그램 매월 3째주 월요일 참가자 모집 예정♥신청: https://linktr.ee/youthflex♥문의: 부산진구 청년FLEX 070-4266-1799 / youngwithjingu@naver.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>[사하구]제2기 사하청년네트워크 구성 및 운영</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>사하구청 일자리복지과</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>051-220-5951</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2023년 제2기 사하청년네트워크 운영사하구에서는 사하청년네트워크를 구성하여 청년 당사자의 정책 참여 확대로 청년이 체감하는청년정책을 추진하고청년들의 교류 활성화 및 구정 참여를 촉진하고자 합니다.명 칭:사하청년네트워크구 성:사하구 거주·생활하는 만19~34세 청년18명활동기간: 2022. 12. 21. ~ 2024. 12. 20.▷위촉일로부터2년추진방향-지역 청년의 정책 참여 및 소통의 장 마련-청년주도의 자율적 운영 기반 마련 및 역량 강화를 위한 교육 지원-청년당사자의 의견이 반영된 정책 발굴 및 구정반영을 통한 민관 거버넌스 구현주요활동-청년문제 및 청년정책 관련 의제 발굴·제안-청년정책 관련 행사 참여 및 모니터링 등 구정활동-정기회의(연2회),분과회의(연10회),활동보고회 참석 등</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>[사하구]2023년 사하구 자격증 등 시험 응시료 지원사업</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-06-28 ~ 2023-12-20</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2023-02-01 ~ 2023-12-20</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>제한없음 / 건강보험료 부과기준 중위소득 120%이하의 가구에 속한 만19세~만34세 사하구 청년</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>사하구청 일자리복지과</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>051-220-5951</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>www.saha.go.kr/startup</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>◇ 지원대상- 연령 : 신청일 기준 만 19세 이상 만 34세 이하- 소득 : 건강보험료 부과 기준 중위소득 120% 이하 가구에 속하는 자- 지원시험 : 2022년 11월~2023년에 실시된 어학시험(토익, 토익스피킹, 오픽, 텝스, 스널트, 플렉스, HSK, JPT, JLPT)및 조례개정공포일('23.6.28.) 이후 실시된 확대 지원 자격 시험 (어학7종, 국가기술자격증, 국가전문자격증, 국가공인민간자격증, 한국사능력검정시험)◇ 지원내용- 자격시험 응시료 1인 최대 8만원 지원◇ 신청방법- 사하구 청년창업지원센터(www.saha.go.kr/startup)에서 온라인 신청</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023 생애 첫 ! 명함 제작 지원</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-03-01 ~ 2023-12-31</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>제한없음 / 만 18~39세 청년 누구나</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>남구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>051-607-3666</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>http://ycpsgo.or.kr/board/program/details/?schCode=DT00000000000438</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>생애 첫 ! 명함 제작 지원 참여자를 모집합니다.1. 운영기간 : 2023. 3. 1.(수) ~ 12. 31.(일)2. 모집대상 : 만18~39세 청년 누구나3. 모집인원 : 매월 10명(선착순)4. 운영내용- 명함 기본 템플릿 제공(미리캔버스)- 셀프 제작 &gt; 출력 지원(20매 내외)5. 지원절차- 방문제작 : 사전예약 &gt; 확정 &gt; 방문 후 직접 디자인 &gt; 명함 수령- 온라인 출력 : 사전예약 &gt; 확정 &gt; 파일 전송(1일전까지) &gt; 명함 수령(파일전송 : chem31@korea.kr)6. 운영시간 : 매주 화/목/토 13:00~17:007. 운영장소 : 남구청년창조발전소 2층(남구 용소로46번길 7)8. 신청방법 : 홈페이지 청년프로그램 게시판- 홈페이지 주소 : http://ycpsgo.or.kr/9. 문  의  처 : 일자리경제과 청년정책팀(051-607-3666~7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>남구청년창조발전소 무료 대관/오픈 공간 안내</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-02-16 ~ 2023-12-31</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>제한없음 / 만 18~39세 청년 누구나</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>남구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>051-607-3666</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://bit.ly/3LA0RSQ</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>남구청년창조발전소 무료 대관/오픈 공간 안내1. 운영기간 : 2023. 2. ~ 상시 진행2. 모집대상 : 만18~39세 청년 누구나3. 대상공간- 대관공간(예약 필수) - 화상회의실 / 오픈스터디룸 1, 2- 오픈공간(예약 불필요) - 커뮤니티 공간 / 미팅룸4. 운영안내- 운영시간 : 월~토 10:00-19:00※ 대관은 18:00 까지 / 일요일 및 공휴일 휴무- 위치 : 남구청년창조발전소(남구 용소로46번길 7)5. 대관방법 : 네이버 검색창에 '남구청년창조발전소' 검색 &gt; 네이버예약 이용(https://bit.ly/3LA0RSQ)6. 문  의  처 : 일자리경제과 청년정책팀(051-607-3666~7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023 남구 청년, 마음건강 캠페인</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-02-14 ~ 2023-11-30</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>제한없음 / 만 18~39세 청년 누구나</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>남구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>051-607-3666</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://bit.ly/3E6jcG7</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>남구 청년 마음건강 캠페인 참여자를 모집합니다.1. 운영기간 : 2023. 2. ~ 11.2. 모집대상 : 만18~39세 청년 누구나3. 모집인원 : 매월 10명 내외4. 운영내용 : 정신건강 선별검사 및 상담5. 운영시간 : 매월 마지막 주 수요일 16:00~18:00- 상반기 : 2월 22일(수), 3월 29일(수), 4월 26일(수), 5월 31일(수), 6월 28일(수)- 하반기 : 7월 26일(수), 8월 30일(수), 9월 20일(수), 10월 25일(수), 11월 29일(수)※ 필요시 일정변경 가능6. 운영장소 : 남구청년창조발전소 1층, 커뮤니티 공간(남구 용소로46번길 7)7. 신청방법 : 홈페이지 청년프로그램 게시판 댓글 작성(https://bit.ly/3E6jcG7)8. 문  의  처 : 일자리경제과 청년정책팀(051-607-3666~7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023년 남구 청년 자격시험 응시료 지원사업</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2023-03-01 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2023-03-01 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>제한없음</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>남구 일자리경제과</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>051-607-3662</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>남구 청년의 도전을 응원합니다 !2023년 남구 청년 자격시험 응시료 지원사업1. 신청기간 : 2023. 3. 1.(수) ~ 12. 15.(금) 상시 접수2. 지원대상 : 아래 요건을 모두 충족하는 자- 2023. 1. 1. 기준 만18~39세 청년(1983. 1. 1. ~ 2004. 12. 31. 출생자)- 주민등록상 최종 전입일로부터 신청일까지 남구에 1년 이상 거주한 자- 신청일 현재 미취업자 및 사업자등록 사실이 없는 자- 2023. 1. 1. 부터 실시한 자격시험을 응시한 자3. 지원내용 : 1인당 연 1회 최대 10만원 자격시험 응시료 지원(실비 지급)- 어학능력시험(토익, 토익스피킹, 토플, 탭스, 지텔프, 플렉스 등)- 한국사능력검정시험- 국가기술자격시험 및 국가전문자격시험4. 신청방법 : 남구 홈페이지 온라인 신청- 구 홈페이지 &gt; 주민복지 &gt; 청년정책 &gt; 청년 자격시험 응시료 지원5. 문 의 처 : 일자리경제과 청년정책팀(☎607-3662)※ 기타 자세한 사항은 【붙임】공고문 참고 요망</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023년도 학자금 대출 신용회복 지원</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2023-01-16 ~ 2023-12-31</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>기타 / 만18~34세 이하 청년</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>051-888-4614</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://young.busan.go.kr/index.nm?menuCd=50</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ㅇ 사업대상 : 주민등록상 부산시에 주소를 두고, 한국장학재단에 학자금대출 신용도판단정보 등록된 만18~34세 이하 청년ㅇ 지원기준- 부산광역시 : 학자금 대출 분할상환약정 체결을 위한 초입금(채무금액의 5%) 지원- 한국장학재단 : 분할상환약정 체결을 통한 신용도판단정보 등록 해제, 지연배상금 전액 감면 등ㅇ 신청방법 : 청년정책플랫폼 온라인 신청서 작성·제출ㅇ 제출서류 : 주민등록등본(신청일 기준 1개월 이내 발급, 주민등록번호 뒷자리 미포함 발급)ㅇ 신청기간 : 2023. 1. 16.(월) 09:00 ~ 사업예산 소진 시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023년 수영구 청년 자격증 응시료 지원 사업</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2023-01-09 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2023-01-09 ~ 2023-12-15</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>구직자 / 생애합산 2년 이상 수영구 주민등록 중인 미취업 청년</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>수영구청</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0516104827</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>www.suyeong.go.kr</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>◇ 지원대상- 연령 : 신청일 기준 만 19세 이상 만 34세 이하 청년- 주민등록 : 현재 수영구 주민등록 + 생애합산 2년 이상 주민등록자- 근로이력 : 미취업자, 미창업자- 소득 : 건강보험료 부과 기준 중위소득 150% 이하 가구에 속하는 자- 응시관련 : 시험 응시 이후 60일 이내 신청, 자격증 최종 취득여부 무관◇ 지원내용- 어학시험, 한국사능력검정시험, 국가기술자격, 국가전문자격 및 국가공인민간자격 취득 응시료 1인 최대 30만원 지원◇ 신청방법- 수영구청 홈페이지(www.suyeong.go.kr)에서 온라인 신청</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>[모집] 2023년 지역주도형 청년일자리사업 참여자 모집</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2022-12-01 ~ 2023-12-31</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2023-01-01 ~ 2023-12-31</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>구직자</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>부산시, 구·군</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>051-816-4608</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://www.busanjob.net/08_wyou/wyou01_0.asp?mbs=A</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>공모 개요가. 사 업 명 : 2023년 지역주도형 청년일자리사업나. 참여기업 및 청년 : 각 세부사업별 모집 및 문의처 안내문 참고다. 참여자 모집기관 : 사업별 담당기관 또는 운영기관라. 모집기간 : 2022. 12월 ~ (세부사업별 상이, 안내문 참조)- 반드시 세부사업별 참여자 모집 별도 공고(‘청년부산잡스’사이트) 확인 후 사업 참여마. 신청방법 : 청년부산잡스 온라인 신청- 부산일자리정보망(busanjob.net) &gt; 청년부산잡스 &gt; 지역주도형 청년일자리사업사업 개요가. 사업목적 : 지역특성에 맞는 청년을 적합한 지역일자리를 발굴·제공하여청년취업으로 연계하고, 청년유입을 지원하여 지역 활력 제고나. 사업기간 : 2023. 1월 ～ 2023. 12월다. 사업대상 : 부산지역 거주 만 39세 이하 미취업 청년라. 시행주체 : 부산시, 구·군마. 사업내용 : 청년의 지역정착을 위한 직접 일자리, 창업지원금 등 제공으로 취·창업 지원</t>
         </is>
       </c>
     </row>
